--- a/RHM.F.xlsx
+++ b/RHM.F.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641A73DA-2417-4BD3-BCDE-4D035D869C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A87172-DE46-4BC1-8785-D78CE82CBE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{A7507B3C-AFE9-4D66-914C-EFDB7D6C474D}"/>
+    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{A7507B3C-AFE9-4D66-914C-EFDB7D6C474D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0;\(#,##0.0\)"/>
     <numFmt numFmtId="165" formatCode="#,##0;\(#,##0\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,12 +128,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -142,6 +140,20 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -167,15 +179,15 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -513,45 +525,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{100D7A46-8F99-4973-ABE5-CA9D53B24423}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="3">
         <v>1332</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="3">
         <v>43.1</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I4" s="5">
@@ -559,11 +574,11 @@
         <v>57409.200000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I5" s="5">
@@ -573,8 +588,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H6" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I6" s="5">
@@ -585,8 +600,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H7" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I7" s="5">
@@ -594,8 +609,8 @@
         <v>58648.200000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H10" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H10" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -615,21 +630,22 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
@@ -643,8 +659,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="5"/>
@@ -680,16 +696,16 @@
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="7">
+      <c r="E4" s="5">
         <v>38290</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="5">
         <v>54973</v>
       </c>
       <c r="G4" s="5"/>
@@ -717,7 +733,7 @@
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -747,8 +763,8 @@
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="5"/>
@@ -784,8 +800,8 @@
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="5"/>
@@ -821,8 +837,8 @@
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="5"/>
@@ -858,8 +874,8 @@
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="5"/>
@@ -895,16 +911,16 @@
       <c r="AC9" s="5"/>
       <c r="AD9" s="5"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="6">
+      <c r="E10" s="7">
         <v>7176</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="7">
         <v>9751</v>
       </c>
       <c r="G10" s="5"/>
@@ -932,7 +948,7 @@
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -962,7 +978,7 @@
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -992,7 +1008,7 @@
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -1022,7 +1038,7 @@
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -1052,7 +1068,7 @@
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -1082,7 +1098,7 @@
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -1112,7 +1128,7 @@
       <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
     </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -1142,7 +1158,7 @@
       <c r="AC17" s="5"/>
       <c r="AD17" s="5"/>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -1172,7 +1188,7 @@
       <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -1202,7 +1218,7 @@
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
     </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -1232,7 +1248,7 @@
       <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -1262,7 +1278,7 @@
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -1292,7 +1308,7 @@
       <c r="AC22" s="5"/>
       <c r="AD22" s="5"/>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1322,7 +1338,7 @@
       <c r="AC23" s="5"/>
       <c r="AD23" s="5"/>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -1352,7 +1368,7 @@
       <c r="AC24" s="5"/>
       <c r="AD24" s="5"/>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -1382,7 +1398,7 @@
       <c r="AC25" s="5"/>
       <c r="AD25" s="5"/>
     </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -1412,7 +1428,7 @@
       <c r="AC26" s="5"/>
       <c r="AD26" s="5"/>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -1442,7 +1458,7 @@
       <c r="AC27" s="5"/>
       <c r="AD27" s="5"/>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -1472,7 +1488,7 @@
       <c r="AC28" s="5"/>
       <c r="AD28" s="5"/>
     </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -1502,7 +1518,7 @@
       <c r="AC29" s="5"/>
       <c r="AD29" s="5"/>
     </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -1532,7 +1548,7 @@
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
     </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -1562,7 +1578,7 @@
       <c r="AC31" s="5"/>
       <c r="AD31" s="5"/>
     </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -1592,7 +1608,7 @@
       <c r="AC32" s="5"/>
       <c r="AD32" s="5"/>
     </row>
-    <row r="33" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -1622,7 +1638,7 @@
       <c r="AC33" s="5"/>
       <c r="AD33" s="5"/>
     </row>
-    <row r="34" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -1652,7 +1668,7 @@
       <c r="AC34" s="5"/>
       <c r="AD34" s="5"/>
     </row>
-    <row r="35" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -1682,7 +1698,7 @@
       <c r="AC35" s="5"/>
       <c r="AD35" s="5"/>
     </row>
-    <row r="36" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -1712,7 +1728,7 @@
       <c r="AC36" s="5"/>
       <c r="AD36" s="5"/>
     </row>
-    <row r="37" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -1742,7 +1758,7 @@
       <c r="AC37" s="5"/>
       <c r="AD37" s="5"/>
     </row>
-    <row r="38" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -1772,7 +1788,7 @@
       <c r="AC38" s="5"/>
       <c r="AD38" s="5"/>
     </row>
-    <row r="39" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -1802,7 +1818,7 @@
       <c r="AC39" s="5"/>
       <c r="AD39" s="5"/>
     </row>
-    <row r="40" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -1832,7 +1848,7 @@
       <c r="AC40" s="5"/>
       <c r="AD40" s="5"/>
     </row>
-    <row r="41" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -1862,7 +1878,7 @@
       <c r="AC41" s="5"/>
       <c r="AD41" s="5"/>
     </row>
-    <row r="42" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -1892,7 +1908,7 @@
       <c r="AC42" s="5"/>
       <c r="AD42" s="5"/>
     </row>
-    <row r="43" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -1922,7 +1938,7 @@
       <c r="AC43" s="5"/>
       <c r="AD43" s="5"/>
     </row>
-    <row r="44" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -1952,7 +1968,7 @@
       <c r="AC44" s="5"/>
       <c r="AD44" s="5"/>
     </row>
-    <row r="45" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -1982,7 +1998,7 @@
       <c r="AC45" s="5"/>
       <c r="AD45" s="5"/>
     </row>
-    <row r="46" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -2012,7 +2028,7 @@
       <c r="AC46" s="5"/>
       <c r="AD46" s="5"/>
     </row>
-    <row r="47" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -2042,7 +2058,7 @@
       <c r="AC47" s="5"/>
       <c r="AD47" s="5"/>
     </row>
-    <row r="48" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -2072,7 +2088,7 @@
       <c r="AC48" s="5"/>
       <c r="AD48" s="5"/>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -2102,7 +2118,7 @@
       <c r="AC49" s="5"/>
       <c r="AD49" s="5"/>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -2132,7 +2148,7 @@
       <c r="AC50" s="5"/>
       <c r="AD50" s="5"/>
     </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -2162,7 +2178,7 @@
       <c r="AC51" s="5"/>
       <c r="AD51" s="5"/>
     </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -2192,7 +2208,7 @@
       <c r="AC52" s="5"/>
       <c r="AD52" s="5"/>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -2222,7 +2238,7 @@
       <c r="AC53" s="5"/>
       <c r="AD53" s="5"/>
     </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -2252,7 +2268,7 @@
       <c r="AC54" s="5"/>
       <c r="AD54" s="5"/>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -2282,7 +2298,7 @@
       <c r="AC55" s="5"/>
       <c r="AD55" s="5"/>
     </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -2312,7 +2328,7 @@
       <c r="AC56" s="5"/>
       <c r="AD56" s="5"/>
     </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
@@ -2342,7 +2358,7 @@
       <c r="AC57" s="5"/>
       <c r="AD57" s="5"/>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -2372,7 +2388,7 @@
       <c r="AC58" s="5"/>
       <c r="AD58" s="5"/>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -2402,7 +2418,7 @@
       <c r="AC59" s="5"/>
       <c r="AD59" s="5"/>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -2432,7 +2448,7 @@
       <c r="AC60" s="5"/>
       <c r="AD60" s="5"/>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -2462,7 +2478,7 @@
       <c r="AC61" s="5"/>
       <c r="AD61" s="5"/>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -2492,7 +2508,7 @@
       <c r="AC62" s="5"/>
       <c r="AD62" s="5"/>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
@@ -2522,7 +2538,7 @@
       <c r="AC63" s="5"/>
       <c r="AD63" s="5"/>
     </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -2552,7 +2568,7 @@
       <c r="AC64" s="5"/>
       <c r="AD64" s="5"/>
     </row>
-    <row r="65" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
@@ -2582,7 +2598,7 @@
       <c r="AC65" s="5"/>
       <c r="AD65" s="5"/>
     </row>
-    <row r="66" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
@@ -2612,7 +2628,7 @@
       <c r="AC66" s="5"/>
       <c r="AD66" s="5"/>
     </row>
-    <row r="67" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
@@ -2642,7 +2658,7 @@
       <c r="AC67" s="5"/>
       <c r="AD67" s="5"/>
     </row>
-    <row r="68" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
@@ -2672,7 +2688,7 @@
       <c r="AC68" s="5"/>
       <c r="AD68" s="5"/>
     </row>
-    <row r="69" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -2702,7 +2718,7 @@
       <c r="AC69" s="5"/>
       <c r="AD69" s="5"/>
     </row>
-    <row r="70" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
@@ -2732,7 +2748,7 @@
       <c r="AC70" s="5"/>
       <c r="AD70" s="5"/>
     </row>
-    <row r="71" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
@@ -2762,7 +2778,7 @@
       <c r="AC71" s="5"/>
       <c r="AD71" s="5"/>
     </row>
-    <row r="72" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -2792,7 +2808,7 @@
       <c r="AC72" s="5"/>
       <c r="AD72" s="5"/>
     </row>
-    <row r="73" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -2822,7 +2838,7 @@
       <c r="AC73" s="5"/>
       <c r="AD73" s="5"/>
     </row>
-    <row r="74" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -2852,7 +2868,7 @@
       <c r="AC74" s="5"/>
       <c r="AD74" s="5"/>
     </row>
-    <row r="75" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -2882,7 +2898,7 @@
       <c r="AC75" s="5"/>
       <c r="AD75" s="5"/>
     </row>
-    <row r="76" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
@@ -2912,7 +2928,7 @@
       <c r="AC76" s="5"/>
       <c r="AD76" s="5"/>
     </row>
-    <row r="77" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
@@ -2942,7 +2958,7 @@
       <c r="AC77" s="5"/>
       <c r="AD77" s="5"/>
     </row>
-    <row r="78" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -2972,7 +2988,7 @@
       <c r="AC78" s="5"/>
       <c r="AD78" s="5"/>
     </row>
-    <row r="79" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
@@ -3002,7 +3018,7 @@
       <c r="AC79" s="5"/>
       <c r="AD79" s="5"/>
     </row>
-    <row r="80" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
@@ -3032,7 +3048,7 @@
       <c r="AC80" s="5"/>
       <c r="AD80" s="5"/>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -3062,7 +3078,7 @@
       <c r="AC81" s="5"/>
       <c r="AD81" s="5"/>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
@@ -3092,7 +3108,7 @@
       <c r="AC82" s="5"/>
       <c r="AD82" s="5"/>
     </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
@@ -3122,7 +3138,7 @@
       <c r="AC83" s="5"/>
       <c r="AD83" s="5"/>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -3152,7 +3168,7 @@
       <c r="AC84" s="5"/>
       <c r="AD84" s="5"/>
     </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -3182,7 +3198,7 @@
       <c r="AC85" s="5"/>
       <c r="AD85" s="5"/>
     </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -3212,7 +3228,7 @@
       <c r="AC86" s="5"/>
       <c r="AD86" s="5"/>
     </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -3242,7 +3258,7 @@
       <c r="AC87" s="5"/>
       <c r="AD87" s="5"/>
     </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -3272,7 +3288,7 @@
       <c r="AC88" s="5"/>
       <c r="AD88" s="5"/>
     </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -3302,7 +3318,7 @@
       <c r="AC89" s="5"/>
       <c r="AD89" s="5"/>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -3332,7 +3348,7 @@
       <c r="AC90" s="5"/>
       <c r="AD90" s="5"/>
     </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -3362,7 +3378,7 @@
       <c r="AC91" s="5"/>
       <c r="AD91" s="5"/>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -3392,7 +3408,7 @@
       <c r="AC92" s="5"/>
       <c r="AD92" s="5"/>
     </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -3422,7 +3438,7 @@
       <c r="AC93" s="5"/>
       <c r="AD93" s="5"/>
     </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
@@ -3452,7 +3468,7 @@
       <c r="AC94" s="5"/>
       <c r="AD94" s="5"/>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
@@ -3482,7 +3498,7 @@
       <c r="AC95" s="5"/>
       <c r="AD95" s="5"/>
     </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
@@ -3512,7 +3528,7 @@
       <c r="AC96" s="5"/>
       <c r="AD96" s="5"/>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
@@ -3542,7 +3558,7 @@
       <c r="AC97" s="5"/>
       <c r="AD97" s="5"/>
     </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
@@ -3572,7 +3588,7 @@
       <c r="AC98" s="5"/>
       <c r="AD98" s="5"/>
     </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
@@ -3602,7 +3618,7 @@
       <c r="AC99" s="5"/>
       <c r="AD99" s="5"/>
     </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
@@ -3632,7 +3648,7 @@
       <c r="AC100" s="5"/>
       <c r="AD100" s="5"/>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
@@ -3662,7 +3678,7 @@
       <c r="AC101" s="5"/>
       <c r="AD101" s="5"/>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
@@ -3692,7 +3708,7 @@
       <c r="AC102" s="5"/>
       <c r="AD102" s="5"/>
     </row>
-    <row r="103" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
@@ -3722,7 +3738,7 @@
       <c r="AC103" s="5"/>
       <c r="AD103" s="5"/>
     </row>
-    <row r="104" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
@@ -3752,7 +3768,7 @@
       <c r="AC104" s="5"/>
       <c r="AD104" s="5"/>
     </row>
-    <row r="105" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
@@ -3782,7 +3798,7 @@
       <c r="AC105" s="5"/>
       <c r="AD105" s="5"/>
     </row>
-    <row r="106" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
@@ -3812,7 +3828,7 @@
       <c r="AC106" s="5"/>
       <c r="AD106" s="5"/>
     </row>
-    <row r="107" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
@@ -3842,7 +3858,7 @@
       <c r="AC107" s="5"/>
       <c r="AD107" s="5"/>
     </row>
-    <row r="108" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
@@ -3872,7 +3888,7 @@
       <c r="AC108" s="5"/>
       <c r="AD108" s="5"/>
     </row>
-    <row r="109" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
@@ -3902,7 +3918,7 @@
       <c r="AC109" s="5"/>
       <c r="AD109" s="5"/>
     </row>
-    <row r="110" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
@@ -3932,7 +3948,7 @@
       <c r="AC110" s="5"/>
       <c r="AD110" s="5"/>
     </row>
-    <row r="111" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
@@ -3962,7 +3978,7 @@
       <c r="AC111" s="5"/>
       <c r="AD111" s="5"/>
     </row>
-    <row r="112" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
@@ -3992,7 +4008,7 @@
       <c r="AC112" s="5"/>
       <c r="AD112" s="5"/>
     </row>
-    <row r="113" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
@@ -4022,7 +4038,7 @@
       <c r="AC113" s="5"/>
       <c r="AD113" s="5"/>
     </row>
-    <row r="114" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
@@ -4052,7 +4068,7 @@
       <c r="AC114" s="5"/>
       <c r="AD114" s="5"/>
     </row>
-    <row r="115" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
@@ -4082,7 +4098,7 @@
       <c r="AC115" s="5"/>
       <c r="AD115" s="5"/>
     </row>
-    <row r="116" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
@@ -4112,7 +4128,7 @@
       <c r="AC116" s="5"/>
       <c r="AD116" s="5"/>
     </row>
-    <row r="117" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
@@ -4142,7 +4158,7 @@
       <c r="AC117" s="5"/>
       <c r="AD117" s="5"/>
     </row>
-    <row r="118" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
@@ -4172,7 +4188,7 @@
       <c r="AC118" s="5"/>
       <c r="AD118" s="5"/>
     </row>
-    <row r="119" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
@@ -4202,7 +4218,7 @@
       <c r="AC119" s="5"/>
       <c r="AD119" s="5"/>
     </row>
-    <row r="120" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
@@ -4232,7 +4248,7 @@
       <c r="AC120" s="5"/>
       <c r="AD120" s="5"/>
     </row>
-    <row r="121" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
@@ -4262,7 +4278,7 @@
       <c r="AC121" s="5"/>
       <c r="AD121" s="5"/>
     </row>
-    <row r="122" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
@@ -4292,7 +4308,7 @@
       <c r="AC122" s="5"/>
       <c r="AD122" s="5"/>
     </row>
-    <row r="123" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
@@ -4322,7 +4338,7 @@
       <c r="AC123" s="5"/>
       <c r="AD123" s="5"/>
     </row>
-    <row r="124" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
@@ -4352,7 +4368,7 @@
       <c r="AC124" s="5"/>
       <c r="AD124" s="5"/>
     </row>
-    <row r="125" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
@@ -4382,7 +4398,7 @@
       <c r="AC125" s="5"/>
       <c r="AD125" s="5"/>
     </row>
-    <row r="126" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
@@ -4412,7 +4428,7 @@
       <c r="AC126" s="5"/>
       <c r="AD126" s="5"/>
     </row>
-    <row r="127" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
@@ -4442,7 +4458,7 @@
       <c r="AC127" s="5"/>
       <c r="AD127" s="5"/>
     </row>
-    <row r="128" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
@@ -4472,7 +4488,7 @@
       <c r="AC128" s="5"/>
       <c r="AD128" s="5"/>
     </row>
-    <row r="129" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
@@ -4502,7 +4518,7 @@
       <c r="AC129" s="5"/>
       <c r="AD129" s="5"/>
     </row>
-    <row r="130" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
@@ -4532,7 +4548,7 @@
       <c r="AC130" s="5"/>
       <c r="AD130" s="5"/>
     </row>
-    <row r="131" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
@@ -4562,7 +4578,7 @@
       <c r="AC131" s="5"/>
       <c r="AD131" s="5"/>
     </row>
-    <row r="132" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
@@ -4592,7 +4608,7 @@
       <c r="AC132" s="5"/>
       <c r="AD132" s="5"/>
     </row>
-    <row r="133" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
@@ -4622,7 +4638,7 @@
       <c r="AC133" s="5"/>
       <c r="AD133" s="5"/>
     </row>
-    <row r="134" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
@@ -4652,7 +4668,7 @@
       <c r="AC134" s="5"/>
       <c r="AD134" s="5"/>
     </row>
-    <row r="135" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
@@ -4682,7 +4698,7 @@
       <c r="AC135" s="5"/>
       <c r="AD135" s="5"/>
     </row>
-    <row r="136" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
@@ -4712,7 +4728,7 @@
       <c r="AC136" s="5"/>
       <c r="AD136" s="5"/>
     </row>
-    <row r="137" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
@@ -4742,7 +4758,7 @@
       <c r="AC137" s="5"/>
       <c r="AD137" s="5"/>
     </row>
-    <row r="138" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
@@ -4772,7 +4788,7 @@
       <c r="AC138" s="5"/>
       <c r="AD138" s="5"/>
     </row>
-    <row r="139" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
@@ -4802,7 +4818,7 @@
       <c r="AC139" s="5"/>
       <c r="AD139" s="5"/>
     </row>
-    <row r="140" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
@@ -4832,7 +4848,7 @@
       <c r="AC140" s="5"/>
       <c r="AD140" s="5"/>
     </row>
-    <row r="141" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
@@ -4862,7 +4878,7 @@
       <c r="AC141" s="5"/>
       <c r="AD141" s="5"/>
     </row>
-    <row r="142" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
@@ -4892,7 +4908,7 @@
       <c r="AC142" s="5"/>
       <c r="AD142" s="5"/>
     </row>
-    <row r="143" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
@@ -4922,7 +4938,7 @@
       <c r="AC143" s="5"/>
       <c r="AD143" s="5"/>
     </row>
-    <row r="144" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
@@ -4952,7 +4968,7 @@
       <c r="AC144" s="5"/>
       <c r="AD144" s="5"/>
     </row>
-    <row r="145" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
@@ -4982,7 +4998,7 @@
       <c r="AC145" s="5"/>
       <c r="AD145" s="5"/>
     </row>
-    <row r="146" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
@@ -5012,7 +5028,7 @@
       <c r="AC146" s="5"/>
       <c r="AD146" s="5"/>
     </row>
-    <row r="147" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
@@ -5042,7 +5058,7 @@
       <c r="AC147" s="5"/>
       <c r="AD147" s="5"/>
     </row>
-    <row r="148" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
@@ -5072,7 +5088,7 @@
       <c r="AC148" s="5"/>
       <c r="AD148" s="5"/>
     </row>
-    <row r="149" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
@@ -5102,7 +5118,7 @@
       <c r="AC149" s="5"/>
       <c r="AD149" s="5"/>
     </row>
-    <row r="150" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
@@ -5132,7 +5148,7 @@
       <c r="AC150" s="5"/>
       <c r="AD150" s="5"/>
     </row>
-    <row r="151" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
@@ -5162,7 +5178,7 @@
       <c r="AC151" s="5"/>
       <c r="AD151" s="5"/>
     </row>
-    <row r="152" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
@@ -5192,7 +5208,7 @@
       <c r="AC152" s="5"/>
       <c r="AD152" s="5"/>
     </row>
-    <row r="153" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
@@ -5222,7 +5238,7 @@
       <c r="AC153" s="5"/>
       <c r="AD153" s="5"/>
     </row>
-    <row r="154" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
@@ -5252,7 +5268,7 @@
       <c r="AC154" s="5"/>
       <c r="AD154" s="5"/>
     </row>
-    <row r="155" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
@@ -5282,7 +5298,7 @@
       <c r="AC155" s="5"/>
       <c r="AD155" s="5"/>
     </row>
-    <row r="156" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
@@ -5312,7 +5328,7 @@
       <c r="AC156" s="5"/>
       <c r="AD156" s="5"/>
     </row>
-    <row r="157" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
@@ -5342,7 +5358,7 @@
       <c r="AC157" s="5"/>
       <c r="AD157" s="5"/>
     </row>
-    <row r="158" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
@@ -5372,7 +5388,7 @@
       <c r="AC158" s="5"/>
       <c r="AD158" s="5"/>
     </row>
-    <row r="159" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
@@ -5402,7 +5418,7 @@
       <c r="AC159" s="5"/>
       <c r="AD159" s="5"/>
     </row>
-    <row r="160" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
@@ -5432,7 +5448,7 @@
       <c r="AC160" s="5"/>
       <c r="AD160" s="5"/>
     </row>
-    <row r="161" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
@@ -5462,7 +5478,7 @@
       <c r="AC161" s="5"/>
       <c r="AD161" s="5"/>
     </row>
-    <row r="162" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
@@ -5492,7 +5508,7 @@
       <c r="AC162" s="5"/>
       <c r="AD162" s="5"/>
     </row>
-    <row r="163" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
@@ -5522,7 +5538,7 @@
       <c r="AC163" s="5"/>
       <c r="AD163" s="5"/>
     </row>
-    <row r="164" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
@@ -5552,7 +5568,7 @@
       <c r="AC164" s="5"/>
       <c r="AD164" s="5"/>
     </row>
-    <row r="165" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
@@ -5582,7 +5598,7 @@
       <c r="AC165" s="5"/>
       <c r="AD165" s="5"/>
     </row>
-    <row r="166" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
@@ -5612,7 +5628,7 @@
       <c r="AC166" s="5"/>
       <c r="AD166" s="5"/>
     </row>
-    <row r="167" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
@@ -5642,7 +5658,7 @@
       <c r="AC167" s="5"/>
       <c r="AD167" s="5"/>
     </row>
-    <row r="168" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
@@ -5672,7 +5688,7 @@
       <c r="AC168" s="5"/>
       <c r="AD168" s="5"/>
     </row>
-    <row r="169" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
@@ -5702,7 +5718,7 @@
       <c r="AC169" s="5"/>
       <c r="AD169" s="5"/>
     </row>
-    <row r="170" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
@@ -5732,7 +5748,7 @@
       <c r="AC170" s="5"/>
       <c r="AD170" s="5"/>
     </row>
-    <row r="171" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
@@ -5762,7 +5778,7 @@
       <c r="AC171" s="5"/>
       <c r="AD171" s="5"/>
     </row>
-    <row r="172" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
@@ -5792,7 +5808,7 @@
       <c r="AC172" s="5"/>
       <c r="AD172" s="5"/>
     </row>
-    <row r="173" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
@@ -5822,7 +5838,7 @@
       <c r="AC173" s="5"/>
       <c r="AD173" s="5"/>
     </row>
-    <row r="174" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
@@ -5852,7 +5868,7 @@
       <c r="AC174" s="5"/>
       <c r="AD174" s="5"/>
     </row>
-    <row r="175" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
@@ -5882,7 +5898,7 @@
       <c r="AC175" s="5"/>
       <c r="AD175" s="5"/>
     </row>
-    <row r="176" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
@@ -5912,7 +5928,7 @@
       <c r="AC176" s="5"/>
       <c r="AD176" s="5"/>
     </row>
-    <row r="177" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
@@ -5942,7 +5958,7 @@
       <c r="AC177" s="5"/>
       <c r="AD177" s="5"/>
     </row>
-    <row r="178" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
@@ -5972,7 +5988,7 @@
       <c r="AC178" s="5"/>
       <c r="AD178" s="5"/>
     </row>
-    <row r="179" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
@@ -6002,7 +6018,7 @@
       <c r="AC179" s="5"/>
       <c r="AD179" s="5"/>
     </row>
-    <row r="180" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
@@ -6032,7 +6048,7 @@
       <c r="AC180" s="5"/>
       <c r="AD180" s="5"/>
     </row>
-    <row r="181" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
@@ -6062,7 +6078,7 @@
       <c r="AC181" s="5"/>
       <c r="AD181" s="5"/>
     </row>
-    <row r="182" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
@@ -6092,7 +6108,7 @@
       <c r="AC182" s="5"/>
       <c r="AD182" s="5"/>
     </row>
-    <row r="183" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
@@ -6122,7 +6138,7 @@
       <c r="AC183" s="5"/>
       <c r="AD183" s="5"/>
     </row>
-    <row r="184" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
@@ -6152,7 +6168,7 @@
       <c r="AC184" s="5"/>
       <c r="AD184" s="5"/>
     </row>
-    <row r="185" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
@@ -6182,7 +6198,7 @@
       <c r="AC185" s="5"/>
       <c r="AD185" s="5"/>
     </row>
-    <row r="186" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
@@ -6212,7 +6228,7 @@
       <c r="AC186" s="5"/>
       <c r="AD186" s="5"/>
     </row>
-    <row r="187" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
@@ -6242,7 +6258,7 @@
       <c r="AC187" s="5"/>
       <c r="AD187" s="5"/>
     </row>
-    <row r="188" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
@@ -6272,7 +6288,7 @@
       <c r="AC188" s="5"/>
       <c r="AD188" s="5"/>
     </row>
-    <row r="189" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
@@ -6302,7 +6318,7 @@
       <c r="AC189" s="5"/>
       <c r="AD189" s="5"/>
     </row>
-    <row r="190" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
@@ -6332,7 +6348,7 @@
       <c r="AC190" s="5"/>
       <c r="AD190" s="5"/>
     </row>
-    <row r="191" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
       <c r="E191" s="5"/>
@@ -6362,7 +6378,7 @@
       <c r="AC191" s="5"/>
       <c r="AD191" s="5"/>
     </row>
-    <row r="192" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
       <c r="E192" s="5"/>
@@ -6392,7 +6408,7 @@
       <c r="AC192" s="5"/>
       <c r="AD192" s="5"/>
     </row>
-    <row r="193" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
       <c r="E193" s="5"/>
@@ -6422,7 +6438,7 @@
       <c r="AC193" s="5"/>
       <c r="AD193" s="5"/>
     </row>
-    <row r="194" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
       <c r="E194" s="5"/>
@@ -6452,7 +6468,7 @@
       <c r="AC194" s="5"/>
       <c r="AD194" s="5"/>
     </row>
-    <row r="195" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
       <c r="E195" s="5"/>
@@ -6482,7 +6498,7 @@
       <c r="AC195" s="5"/>
       <c r="AD195" s="5"/>
     </row>
-    <row r="196" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
@@ -6512,7 +6528,7 @@
       <c r="AC196" s="5"/>
       <c r="AD196" s="5"/>
     </row>
-    <row r="197" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
       <c r="E197" s="5"/>
@@ -6542,7 +6558,7 @@
       <c r="AC197" s="5"/>
       <c r="AD197" s="5"/>
     </row>
-    <row r="198" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
       <c r="E198" s="5"/>
@@ -6572,7 +6588,7 @@
       <c r="AC198" s="5"/>
       <c r="AD198" s="5"/>
     </row>
-    <row r="199" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
       <c r="E199" s="5"/>
@@ -6602,7 +6618,7 @@
       <c r="AC199" s="5"/>
       <c r="AD199" s="5"/>
     </row>
-    <row r="200" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
       <c r="E200" s="5"/>
@@ -6632,7 +6648,7 @@
       <c r="AC200" s="5"/>
       <c r="AD200" s="5"/>
     </row>
-    <row r="201" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
       <c r="E201" s="5"/>
@@ -6662,7 +6678,7 @@
       <c r="AC201" s="5"/>
       <c r="AD201" s="5"/>
     </row>
-    <row r="202" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
       <c r="E202" s="5"/>
@@ -6692,7 +6708,7 @@
       <c r="AC202" s="5"/>
       <c r="AD202" s="5"/>
     </row>
-    <row r="203" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
       <c r="E203" s="5"/>
@@ -6722,7 +6738,7 @@
       <c r="AC203" s="5"/>
       <c r="AD203" s="5"/>
     </row>
-    <row r="204" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C204" s="5"/>
       <c r="D204" s="5"/>
       <c r="E204" s="5"/>
@@ -6752,7 +6768,7 @@
       <c r="AC204" s="5"/>
       <c r="AD204" s="5"/>
     </row>
-    <row r="205" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C205" s="5"/>
       <c r="D205" s="5"/>
       <c r="E205" s="5"/>
@@ -6782,7 +6798,7 @@
       <c r="AC205" s="5"/>
       <c r="AD205" s="5"/>
     </row>
-    <row r="206" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
       <c r="E206" s="5"/>
@@ -6812,7 +6828,7 @@
       <c r="AC206" s="5"/>
       <c r="AD206" s="5"/>
     </row>
-    <row r="207" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C207" s="5"/>
       <c r="D207" s="5"/>
       <c r="E207" s="5"/>
@@ -6842,7 +6858,7 @@
       <c r="AC207" s="5"/>
       <c r="AD207" s="5"/>
     </row>
-    <row r="208" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C208" s="5"/>
       <c r="D208" s="5"/>
       <c r="E208" s="5"/>
@@ -6872,7 +6888,7 @@
       <c r="AC208" s="5"/>
       <c r="AD208" s="5"/>
     </row>
-    <row r="209" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C209" s="5"/>
       <c r="D209" s="5"/>
       <c r="E209" s="5"/>
@@ -6902,7 +6918,7 @@
       <c r="AC209" s="5"/>
       <c r="AD209" s="5"/>
     </row>
-    <row r="210" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C210" s="5"/>
       <c r="D210" s="5"/>
       <c r="E210" s="5"/>
@@ -6932,7 +6948,7 @@
       <c r="AC210" s="5"/>
       <c r="AD210" s="5"/>
     </row>
-    <row r="211" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C211" s="5"/>
       <c r="D211" s="5"/>
       <c r="E211" s="5"/>
@@ -6962,7 +6978,7 @@
       <c r="AC211" s="5"/>
       <c r="AD211" s="5"/>
     </row>
-    <row r="212" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C212" s="5"/>
       <c r="D212" s="5"/>
       <c r="E212" s="5"/>
@@ -6992,7 +7008,7 @@
       <c r="AC212" s="5"/>
       <c r="AD212" s="5"/>
     </row>
-    <row r="213" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C213" s="5"/>
       <c r="D213" s="5"/>
       <c r="E213" s="5"/>
@@ -7022,7 +7038,7 @@
       <c r="AC213" s="5"/>
       <c r="AD213" s="5"/>
     </row>
-    <row r="214" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
       <c r="E214" s="5"/>
@@ -7052,7 +7068,7 @@
       <c r="AC214" s="5"/>
       <c r="AD214" s="5"/>
     </row>
-    <row r="215" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C215" s="5"/>
       <c r="D215" s="5"/>
       <c r="E215" s="5"/>
@@ -7082,7 +7098,7 @@
       <c r="AC215" s="5"/>
       <c r="AD215" s="5"/>
     </row>
-    <row r="216" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C216" s="5"/>
       <c r="D216" s="5"/>
       <c r="E216" s="5"/>
@@ -7112,7 +7128,7 @@
       <c r="AC216" s="5"/>
       <c r="AD216" s="5"/>
     </row>
-    <row r="217" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C217" s="5"/>
       <c r="D217" s="5"/>
       <c r="E217" s="5"/>
@@ -7142,7 +7158,7 @@
       <c r="AC217" s="5"/>
       <c r="AD217" s="5"/>
     </row>
-    <row r="218" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
       <c r="E218" s="5"/>
@@ -7172,7 +7188,7 @@
       <c r="AC218" s="5"/>
       <c r="AD218" s="5"/>
     </row>
-    <row r="219" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C219" s="5"/>
       <c r="D219" s="5"/>
       <c r="E219" s="5"/>
@@ -7202,7 +7218,7 @@
       <c r="AC219" s="5"/>
       <c r="AD219" s="5"/>
     </row>
-    <row r="220" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C220" s="5"/>
       <c r="D220" s="5"/>
       <c r="E220" s="5"/>
@@ -7232,7 +7248,7 @@
       <c r="AC220" s="5"/>
       <c r="AD220" s="5"/>
     </row>
-    <row r="221" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C221" s="5"/>
       <c r="D221" s="5"/>
       <c r="E221" s="5"/>
@@ -7262,7 +7278,7 @@
       <c r="AC221" s="5"/>
       <c r="AD221" s="5"/>
     </row>
-    <row r="222" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C222" s="5"/>
       <c r="D222" s="5"/>
       <c r="E222" s="5"/>
@@ -7292,7 +7308,7 @@
       <c r="AC222" s="5"/>
       <c r="AD222" s="5"/>
     </row>
-    <row r="223" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C223" s="5"/>
       <c r="D223" s="5"/>
       <c r="E223" s="5"/>
@@ -7322,7 +7338,7 @@
       <c r="AC223" s="5"/>
       <c r="AD223" s="5"/>
     </row>
-    <row r="224" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C224" s="5"/>
       <c r="D224" s="5"/>
       <c r="E224" s="5"/>
@@ -7352,7 +7368,7 @@
       <c r="AC224" s="5"/>
       <c r="AD224" s="5"/>
     </row>
-    <row r="225" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C225" s="5"/>
       <c r="D225" s="5"/>
       <c r="E225" s="5"/>
@@ -7382,7 +7398,7 @@
       <c r="AC225" s="5"/>
       <c r="AD225" s="5"/>
     </row>
-    <row r="226" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C226" s="5"/>
       <c r="D226" s="5"/>
       <c r="E226" s="5"/>
@@ -7412,7 +7428,7 @@
       <c r="AC226" s="5"/>
       <c r="AD226" s="5"/>
     </row>
-    <row r="227" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C227" s="5"/>
       <c r="D227" s="5"/>
       <c r="E227" s="5"/>
@@ -7442,7 +7458,7 @@
       <c r="AC227" s="5"/>
       <c r="AD227" s="5"/>
     </row>
-    <row r="228" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C228" s="5"/>
       <c r="D228" s="5"/>
       <c r="E228" s="5"/>
@@ -7472,7 +7488,7 @@
       <c r="AC228" s="5"/>
       <c r="AD228" s="5"/>
     </row>
-    <row r="229" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C229" s="5"/>
       <c r="D229" s="5"/>
       <c r="E229" s="5"/>
@@ -7502,7 +7518,7 @@
       <c r="AC229" s="5"/>
       <c r="AD229" s="5"/>
     </row>
-    <row r="230" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C230" s="5"/>
       <c r="D230" s="5"/>
       <c r="E230" s="5"/>
@@ -7532,7 +7548,7 @@
       <c r="AC230" s="5"/>
       <c r="AD230" s="5"/>
     </row>
-    <row r="231" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C231" s="5"/>
       <c r="D231" s="5"/>
       <c r="E231" s="5"/>
@@ -7562,7 +7578,7 @@
       <c r="AC231" s="5"/>
       <c r="AD231" s="5"/>
     </row>
-    <row r="232" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C232" s="5"/>
       <c r="D232" s="5"/>
       <c r="E232" s="5"/>
@@ -7592,7 +7608,7 @@
       <c r="AC232" s="5"/>
       <c r="AD232" s="5"/>
     </row>
-    <row r="233" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C233" s="5"/>
       <c r="D233" s="5"/>
       <c r="E233" s="5"/>
@@ -7622,7 +7638,7 @@
       <c r="AC233" s="5"/>
       <c r="AD233" s="5"/>
     </row>
-    <row r="234" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C234" s="5"/>
       <c r="D234" s="5"/>
       <c r="E234" s="5"/>
@@ -7652,7 +7668,7 @@
       <c r="AC234" s="5"/>
       <c r="AD234" s="5"/>
     </row>
-    <row r="235" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C235" s="5"/>
       <c r="D235" s="5"/>
       <c r="E235" s="5"/>
@@ -7682,7 +7698,7 @@
       <c r="AC235" s="5"/>
       <c r="AD235" s="5"/>
     </row>
-    <row r="236" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C236" s="5"/>
       <c r="D236" s="5"/>
       <c r="E236" s="5"/>
@@ -7712,7 +7728,7 @@
       <c r="AC236" s="5"/>
       <c r="AD236" s="5"/>
     </row>
-    <row r="237" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C237" s="5"/>
       <c r="D237" s="5"/>
       <c r="E237" s="5"/>
@@ -7742,7 +7758,7 @@
       <c r="AC237" s="5"/>
       <c r="AD237" s="5"/>
     </row>
-    <row r="238" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C238" s="5"/>
       <c r="D238" s="5"/>
       <c r="E238" s="5"/>
@@ -7772,7 +7788,7 @@
       <c r="AC238" s="5"/>
       <c r="AD238" s="5"/>
     </row>
-    <row r="239" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C239" s="5"/>
       <c r="D239" s="5"/>
       <c r="E239" s="5"/>
@@ -7802,7 +7818,7 @@
       <c r="AC239" s="5"/>
       <c r="AD239" s="5"/>
     </row>
-    <row r="240" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C240" s="5"/>
       <c r="D240" s="5"/>
       <c r="E240" s="5"/>
@@ -7832,7 +7848,7 @@
       <c r="AC240" s="5"/>
       <c r="AD240" s="5"/>
     </row>
-    <row r="241" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C241" s="5"/>
       <c r="D241" s="5"/>
       <c r="E241" s="5"/>
@@ -7862,7 +7878,7 @@
       <c r="AC241" s="5"/>
       <c r="AD241" s="5"/>
     </row>
-    <row r="242" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C242" s="5"/>
       <c r="D242" s="5"/>
       <c r="E242" s="5"/>
@@ -7892,7 +7908,7 @@
       <c r="AC242" s="5"/>
       <c r="AD242" s="5"/>
     </row>
-    <row r="243" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C243" s="5"/>
       <c r="D243" s="5"/>
       <c r="E243" s="5"/>
@@ -7922,7 +7938,7 @@
       <c r="AC243" s="5"/>
       <c r="AD243" s="5"/>
     </row>
-    <row r="244" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C244" s="5"/>
       <c r="D244" s="5"/>
       <c r="E244" s="5"/>
@@ -7952,7 +7968,7 @@
       <c r="AC244" s="5"/>
       <c r="AD244" s="5"/>
     </row>
-    <row r="245" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C245" s="5"/>
       <c r="D245" s="5"/>
       <c r="E245" s="5"/>
@@ -7982,7 +7998,7 @@
       <c r="AC245" s="5"/>
       <c r="AD245" s="5"/>
     </row>
-    <row r="246" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C246" s="5"/>
       <c r="D246" s="5"/>
       <c r="E246" s="5"/>
@@ -8012,7 +8028,7 @@
       <c r="AC246" s="5"/>
       <c r="AD246" s="5"/>
     </row>
-    <row r="247" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C247" s="5"/>
       <c r="D247" s="5"/>
       <c r="E247" s="5"/>
@@ -8042,7 +8058,7 @@
       <c r="AC247" s="5"/>
       <c r="AD247" s="5"/>
     </row>
-    <row r="248" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C248" s="5"/>
       <c r="D248" s="5"/>
       <c r="E248" s="5"/>
@@ -8072,7 +8088,7 @@
       <c r="AC248" s="5"/>
       <c r="AD248" s="5"/>
     </row>
-    <row r="249" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C249" s="5"/>
       <c r="D249" s="5"/>
       <c r="E249" s="5"/>
@@ -8102,7 +8118,7 @@
       <c r="AC249" s="5"/>
       <c r="AD249" s="5"/>
     </row>
-    <row r="250" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C250" s="5"/>
       <c r="D250" s="5"/>
       <c r="E250" s="5"/>
@@ -8132,7 +8148,7 @@
       <c r="AC250" s="5"/>
       <c r="AD250" s="5"/>
     </row>
-    <row r="251" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C251" s="5"/>
       <c r="D251" s="5"/>
       <c r="E251" s="5"/>
@@ -8162,7 +8178,7 @@
       <c r="AC251" s="5"/>
       <c r="AD251" s="5"/>
     </row>
-    <row r="252" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C252" s="5"/>
       <c r="D252" s="5"/>
       <c r="E252" s="5"/>
@@ -8192,7 +8208,7 @@
       <c r="AC252" s="5"/>
       <c r="AD252" s="5"/>
     </row>
-    <row r="253" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C253" s="5"/>
       <c r="D253" s="5"/>
       <c r="E253" s="5"/>
@@ -8222,7 +8238,7 @@
       <c r="AC253" s="5"/>
       <c r="AD253" s="5"/>
     </row>
-    <row r="254" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C254" s="5"/>
       <c r="D254" s="5"/>
       <c r="E254" s="5"/>
@@ -8252,7 +8268,7 @@
       <c r="AC254" s="5"/>
       <c r="AD254" s="5"/>
     </row>
-    <row r="255" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C255" s="5"/>
       <c r="D255" s="5"/>
       <c r="E255" s="5"/>
@@ -8282,7 +8298,7 @@
       <c r="AC255" s="5"/>
       <c r="AD255" s="5"/>
     </row>
-    <row r="256" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C256" s="5"/>
       <c r="D256" s="5"/>
       <c r="E256" s="5"/>
@@ -8312,7 +8328,7 @@
       <c r="AC256" s="5"/>
       <c r="AD256" s="5"/>
     </row>
-    <row r="257" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C257" s="5"/>
       <c r="D257" s="5"/>
       <c r="E257" s="5"/>
@@ -8342,7 +8358,7 @@
       <c r="AC257" s="5"/>
       <c r="AD257" s="5"/>
     </row>
-    <row r="258" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C258" s="5"/>
       <c r="D258" s="5"/>
       <c r="E258" s="5"/>
@@ -8372,7 +8388,7 @@
       <c r="AC258" s="5"/>
       <c r="AD258" s="5"/>
     </row>
-    <row r="259" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C259" s="5"/>
       <c r="D259" s="5"/>
       <c r="E259" s="5"/>
@@ -8402,7 +8418,7 @@
       <c r="AC259" s="5"/>
       <c r="AD259" s="5"/>
     </row>
-    <row r="260" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C260" s="5"/>
       <c r="D260" s="5"/>
       <c r="E260" s="5"/>
@@ -8432,7 +8448,7 @@
       <c r="AC260" s="5"/>
       <c r="AD260" s="5"/>
     </row>
-    <row r="261" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C261" s="5"/>
       <c r="D261" s="5"/>
       <c r="E261" s="5"/>
@@ -8462,7 +8478,7 @@
       <c r="AC261" s="5"/>
       <c r="AD261" s="5"/>
     </row>
-    <row r="262" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C262" s="5"/>
       <c r="D262" s="5"/>
       <c r="E262" s="5"/>
@@ -8492,7 +8508,7 @@
       <c r="AC262" s="5"/>
       <c r="AD262" s="5"/>
     </row>
-    <row r="263" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C263" s="5"/>
       <c r="D263" s="5"/>
       <c r="E263" s="5"/>
@@ -8522,7 +8538,7 @@
       <c r="AC263" s="5"/>
       <c r="AD263" s="5"/>
     </row>
-    <row r="264" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C264" s="5"/>
       <c r="D264" s="5"/>
       <c r="E264" s="5"/>
@@ -8552,7 +8568,7 @@
       <c r="AC264" s="5"/>
       <c r="AD264" s="5"/>
     </row>
-    <row r="265" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C265" s="5"/>
       <c r="D265" s="5"/>
       <c r="E265" s="5"/>
@@ -8582,7 +8598,7 @@
       <c r="AC265" s="5"/>
       <c r="AD265" s="5"/>
     </row>
-    <row r="266" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C266" s="5"/>
       <c r="D266" s="5"/>
       <c r="E266" s="5"/>
@@ -8612,7 +8628,7 @@
       <c r="AC266" s="5"/>
       <c r="AD266" s="5"/>
     </row>
-    <row r="267" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C267" s="5"/>
       <c r="D267" s="5"/>
       <c r="E267" s="5"/>
@@ -8642,7 +8658,7 @@
       <c r="AC267" s="5"/>
       <c r="AD267" s="5"/>
     </row>
-    <row r="268" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C268" s="5"/>
       <c r="D268" s="5"/>
       <c r="E268" s="5"/>
@@ -8672,7 +8688,7 @@
       <c r="AC268" s="5"/>
       <c r="AD268" s="5"/>
     </row>
-    <row r="269" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C269" s="5"/>
       <c r="D269" s="5"/>
       <c r="E269" s="5"/>
@@ -8702,7 +8718,7 @@
       <c r="AC269" s="5"/>
       <c r="AD269" s="5"/>
     </row>
-    <row r="270" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C270" s="5"/>
       <c r="D270" s="5"/>
       <c r="E270" s="5"/>
@@ -8732,7 +8748,7 @@
       <c r="AC270" s="5"/>
       <c r="AD270" s="5"/>
     </row>
-    <row r="271" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C271" s="5"/>
       <c r="D271" s="5"/>
       <c r="E271" s="5"/>
@@ -8762,7 +8778,7 @@
       <c r="AC271" s="5"/>
       <c r="AD271" s="5"/>
     </row>
-    <row r="272" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C272" s="5"/>
       <c r="D272" s="5"/>
       <c r="E272" s="5"/>
@@ -8792,7 +8808,7 @@
       <c r="AC272" s="5"/>
       <c r="AD272" s="5"/>
     </row>
-    <row r="273" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C273" s="5"/>
       <c r="D273" s="5"/>
       <c r="E273" s="5"/>
@@ -8822,7 +8838,7 @@
       <c r="AC273" s="5"/>
       <c r="AD273" s="5"/>
     </row>
-    <row r="274" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C274" s="5"/>
       <c r="D274" s="5"/>
       <c r="E274" s="5"/>
@@ -8852,7 +8868,7 @@
       <c r="AC274" s="5"/>
       <c r="AD274" s="5"/>
     </row>
-    <row r="275" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C275" s="5"/>
       <c r="D275" s="5"/>
       <c r="E275" s="5"/>
@@ -8882,7 +8898,7 @@
       <c r="AC275" s="5"/>
       <c r="AD275" s="5"/>
     </row>
-    <row r="276" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C276" s="5"/>
       <c r="D276" s="5"/>
       <c r="E276" s="5"/>
@@ -8912,7 +8928,7 @@
       <c r="AC276" s="5"/>
       <c r="AD276" s="5"/>
     </row>
-    <row r="277" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C277" s="5"/>
       <c r="D277" s="5"/>
       <c r="E277" s="5"/>
@@ -8942,7 +8958,7 @@
       <c r="AC277" s="5"/>
       <c r="AD277" s="5"/>
     </row>
-    <row r="278" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C278" s="5"/>
       <c r="D278" s="5"/>
       <c r="E278" s="5"/>
@@ -8972,7 +8988,7 @@
       <c r="AC278" s="5"/>
       <c r="AD278" s="5"/>
     </row>
-    <row r="279" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C279" s="5"/>
       <c r="D279" s="5"/>
       <c r="E279" s="5"/>
@@ -9002,7 +9018,7 @@
       <c r="AC279" s="5"/>
       <c r="AD279" s="5"/>
     </row>
-    <row r="280" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C280" s="5"/>
       <c r="D280" s="5"/>
       <c r="E280" s="5"/>
@@ -9032,7 +9048,7 @@
       <c r="AC280" s="5"/>
       <c r="AD280" s="5"/>
     </row>
-    <row r="281" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C281" s="5"/>
       <c r="D281" s="5"/>
       <c r="E281" s="5"/>
@@ -9062,7 +9078,7 @@
       <c r="AC281" s="5"/>
       <c r="AD281" s="5"/>
     </row>
-    <row r="282" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C282" s="5"/>
       <c r="D282" s="5"/>
       <c r="E282" s="5"/>
@@ -9092,7 +9108,7 @@
       <c r="AC282" s="5"/>
       <c r="AD282" s="5"/>
     </row>
-    <row r="283" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C283" s="5"/>
       <c r="D283" s="5"/>
       <c r="E283" s="5"/>
@@ -9122,7 +9138,7 @@
       <c r="AC283" s="5"/>
       <c r="AD283" s="5"/>
     </row>
-    <row r="284" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C284" s="5"/>
       <c r="D284" s="5"/>
       <c r="E284" s="5"/>
@@ -9152,7 +9168,7 @@
       <c r="AC284" s="5"/>
       <c r="AD284" s="5"/>
     </row>
-    <row r="285" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C285" s="5"/>
       <c r="D285" s="5"/>
       <c r="E285" s="5"/>
@@ -9182,7 +9198,7 @@
       <c r="AC285" s="5"/>
       <c r="AD285" s="5"/>
     </row>
-    <row r="286" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C286" s="5"/>
       <c r="D286" s="5"/>
       <c r="E286" s="5"/>
@@ -9212,7 +9228,7 @@
       <c r="AC286" s="5"/>
       <c r="AD286" s="5"/>
     </row>
-    <row r="287" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C287" s="5"/>
       <c r="D287" s="5"/>
       <c r="E287" s="5"/>
@@ -9242,7 +9258,7 @@
       <c r="AC287" s="5"/>
       <c r="AD287" s="5"/>
     </row>
-    <row r="288" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C288" s="5"/>
       <c r="D288" s="5"/>
       <c r="E288" s="5"/>
@@ -9272,7 +9288,7 @@
       <c r="AC288" s="5"/>
       <c r="AD288" s="5"/>
     </row>
-    <row r="289" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C289" s="5"/>
       <c r="D289" s="5"/>
       <c r="E289" s="5"/>
@@ -9302,7 +9318,7 @@
       <c r="AC289" s="5"/>
       <c r="AD289" s="5"/>
     </row>
-    <row r="290" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C290" s="5"/>
       <c r="D290" s="5"/>
       <c r="E290" s="5"/>
@@ -9332,7 +9348,7 @@
       <c r="AC290" s="5"/>
       <c r="AD290" s="5"/>
     </row>
-    <row r="291" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C291" s="5"/>
       <c r="D291" s="5"/>
       <c r="E291" s="5"/>
@@ -9362,7 +9378,7 @@
       <c r="AC291" s="5"/>
       <c r="AD291" s="5"/>
     </row>
-    <row r="292" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C292" s="5"/>
       <c r="D292" s="5"/>
       <c r="E292" s="5"/>
@@ -9392,7 +9408,7 @@
       <c r="AC292" s="5"/>
       <c r="AD292" s="5"/>
     </row>
-    <row r="293" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C293" s="5"/>
       <c r="D293" s="5"/>
       <c r="E293" s="5"/>
@@ -9422,7 +9438,7 @@
       <c r="AC293" s="5"/>
       <c r="AD293" s="5"/>
     </row>
-    <row r="294" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C294" s="5"/>
       <c r="D294" s="5"/>
       <c r="E294" s="5"/>
@@ -9452,7 +9468,7 @@
       <c r="AC294" s="5"/>
       <c r="AD294" s="5"/>
     </row>
-    <row r="295" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C295" s="5"/>
       <c r="D295" s="5"/>
       <c r="E295" s="5"/>
@@ -9482,7 +9498,7 @@
       <c r="AC295" s="5"/>
       <c r="AD295" s="5"/>
     </row>
-    <row r="296" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C296" s="5"/>
       <c r="D296" s="5"/>
       <c r="E296" s="5"/>
@@ -9512,7 +9528,7 @@
       <c r="AC296" s="5"/>
       <c r="AD296" s="5"/>
     </row>
-    <row r="297" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C297" s="5"/>
       <c r="D297" s="5"/>
       <c r="E297" s="5"/>
@@ -9542,7 +9558,7 @@
       <c r="AC297" s="5"/>
       <c r="AD297" s="5"/>
     </row>
-    <row r="298" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C298" s="5"/>
       <c r="D298" s="5"/>
       <c r="E298" s="5"/>
@@ -9572,7 +9588,7 @@
       <c r="AC298" s="5"/>
       <c r="AD298" s="5"/>
     </row>
-    <row r="299" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C299" s="5"/>
       <c r="D299" s="5"/>
       <c r="E299" s="5"/>
@@ -9602,7 +9618,7 @@
       <c r="AC299" s="5"/>
       <c r="AD299" s="5"/>
     </row>
-    <row r="300" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C300" s="5"/>
       <c r="D300" s="5"/>
       <c r="E300" s="5"/>
@@ -9632,7 +9648,7 @@
       <c r="AC300" s="5"/>
       <c r="AD300" s="5"/>
     </row>
-    <row r="301" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C301" s="5"/>
       <c r="D301" s="5"/>
       <c r="E301" s="5"/>
@@ -9662,7 +9678,7 @@
       <c r="AC301" s="5"/>
       <c r="AD301" s="5"/>
     </row>
-    <row r="302" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C302" s="5"/>
       <c r="D302" s="5"/>
       <c r="E302" s="5"/>
@@ -9692,7 +9708,7 @@
       <c r="AC302" s="5"/>
       <c r="AD302" s="5"/>
     </row>
-    <row r="303" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C303" s="5"/>
       <c r="D303" s="5"/>
       <c r="E303" s="5"/>
@@ -9722,7 +9738,7 @@
       <c r="AC303" s="5"/>
       <c r="AD303" s="5"/>
     </row>
-    <row r="304" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C304" s="5"/>
       <c r="D304" s="5"/>
       <c r="E304" s="5"/>
@@ -9752,7 +9768,7 @@
       <c r="AC304" s="5"/>
       <c r="AD304" s="5"/>
     </row>
-    <row r="305" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C305" s="5"/>
       <c r="D305" s="5"/>
       <c r="E305" s="5"/>
@@ -9782,7 +9798,7 @@
       <c r="AC305" s="5"/>
       <c r="AD305" s="5"/>
     </row>
-    <row r="306" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C306" s="5"/>
       <c r="D306" s="5"/>
       <c r="E306" s="5"/>
@@ -9812,7 +9828,7 @@
       <c r="AC306" s="5"/>
       <c r="AD306" s="5"/>
     </row>
-    <row r="307" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C307" s="5"/>
       <c r="D307" s="5"/>
       <c r="E307" s="5"/>
@@ -9842,7 +9858,7 @@
       <c r="AC307" s="5"/>
       <c r="AD307" s="5"/>
     </row>
-    <row r="308" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C308" s="5"/>
       <c r="D308" s="5"/>
       <c r="E308" s="5"/>
@@ -9872,7 +9888,7 @@
       <c r="AC308" s="5"/>
       <c r="AD308" s="5"/>
     </row>
-    <row r="309" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C309" s="5"/>
       <c r="D309" s="5"/>
       <c r="E309" s="5"/>
@@ -9902,7 +9918,7 @@
       <c r="AC309" s="5"/>
       <c r="AD309" s="5"/>
     </row>
-    <row r="310" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C310" s="5"/>
       <c r="D310" s="5"/>
       <c r="E310" s="5"/>
@@ -9932,7 +9948,7 @@
       <c r="AC310" s="5"/>
       <c r="AD310" s="5"/>
     </row>
-    <row r="311" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C311" s="5"/>
       <c r="D311" s="5"/>
       <c r="E311" s="5"/>
@@ -9962,7 +9978,7 @@
       <c r="AC311" s="5"/>
       <c r="AD311" s="5"/>
     </row>
-    <row r="312" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C312" s="5"/>
       <c r="D312" s="5"/>
       <c r="E312" s="5"/>
@@ -9992,7 +10008,7 @@
       <c r="AC312" s="5"/>
       <c r="AD312" s="5"/>
     </row>
-    <row r="313" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C313" s="5"/>
       <c r="D313" s="5"/>
       <c r="E313" s="5"/>
@@ -10022,7 +10038,7 @@
       <c r="AC313" s="5"/>
       <c r="AD313" s="5"/>
     </row>
-    <row r="314" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C314" s="5"/>
       <c r="D314" s="5"/>
       <c r="E314" s="5"/>
@@ -10052,7 +10068,7 @@
       <c r="AC314" s="5"/>
       <c r="AD314" s="5"/>
     </row>
-    <row r="315" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C315" s="5"/>
       <c r="D315" s="5"/>
       <c r="E315" s="5"/>
@@ -10082,7 +10098,7 @@
       <c r="AC315" s="5"/>
       <c r="AD315" s="5"/>
     </row>
-    <row r="316" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C316" s="5"/>
       <c r="D316" s="5"/>
       <c r="E316" s="5"/>
@@ -10112,7 +10128,7 @@
       <c r="AC316" s="5"/>
       <c r="AD316" s="5"/>
     </row>
-    <row r="317" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C317" s="5"/>
       <c r="D317" s="5"/>
       <c r="E317" s="5"/>
@@ -10142,7 +10158,7 @@
       <c r="AC317" s="5"/>
       <c r="AD317" s="5"/>
     </row>
-    <row r="318" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C318" s="5"/>
       <c r="D318" s="5"/>
       <c r="E318" s="5"/>
@@ -10172,7 +10188,7 @@
       <c r="AC318" s="5"/>
       <c r="AD318" s="5"/>
     </row>
-    <row r="319" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C319" s="5"/>
       <c r="D319" s="5"/>
       <c r="E319" s="5"/>
@@ -10202,7 +10218,7 @@
       <c r="AC319" s="5"/>
       <c r="AD319" s="5"/>
     </row>
-    <row r="320" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C320" s="5"/>
       <c r="D320" s="5"/>
       <c r="E320" s="5"/>
@@ -10232,7 +10248,7 @@
       <c r="AC320" s="5"/>
       <c r="AD320" s="5"/>
     </row>
-    <row r="321" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C321" s="5"/>
       <c r="D321" s="5"/>
       <c r="E321" s="5"/>
@@ -10262,7 +10278,7 @@
       <c r="AC321" s="5"/>
       <c r="AD321" s="5"/>
     </row>
-    <row r="322" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C322" s="5"/>
       <c r="D322" s="5"/>
       <c r="E322" s="5"/>
@@ -10292,7 +10308,7 @@
       <c r="AC322" s="5"/>
       <c r="AD322" s="5"/>
     </row>
-    <row r="323" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C323" s="5"/>
       <c r="D323" s="5"/>
       <c r="E323" s="5"/>
@@ -10322,7 +10338,7 @@
       <c r="AC323" s="5"/>
       <c r="AD323" s="5"/>
     </row>
-    <row r="324" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C324" s="5"/>
       <c r="D324" s="5"/>
       <c r="E324" s="5"/>
@@ -10352,7 +10368,7 @@
       <c r="AC324" s="5"/>
       <c r="AD324" s="5"/>
     </row>
-    <row r="325" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C325" s="5"/>
       <c r="D325" s="5"/>
       <c r="E325" s="5"/>
@@ -10382,7 +10398,7 @@
       <c r="AC325" s="5"/>
       <c r="AD325" s="5"/>
     </row>
-    <row r="326" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C326" s="5"/>
       <c r="D326" s="5"/>
       <c r="E326" s="5"/>
@@ -10412,7 +10428,7 @@
       <c r="AC326" s="5"/>
       <c r="AD326" s="5"/>
     </row>
-    <row r="327" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C327" s="5"/>
       <c r="D327" s="5"/>
       <c r="E327" s="5"/>
@@ -10442,7 +10458,7 @@
       <c r="AC327" s="5"/>
       <c r="AD327" s="5"/>
     </row>
-    <row r="328" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C328" s="5"/>
       <c r="D328" s="5"/>
       <c r="E328" s="5"/>
@@ -10472,7 +10488,7 @@
       <c r="AC328" s="5"/>
       <c r="AD328" s="5"/>
     </row>
-    <row r="329" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C329" s="5"/>
       <c r="D329" s="5"/>
       <c r="E329" s="5"/>
@@ -10502,7 +10518,7 @@
       <c r="AC329" s="5"/>
       <c r="AD329" s="5"/>
     </row>
-    <row r="330" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C330" s="5"/>
       <c r="D330" s="5"/>
       <c r="E330" s="5"/>
@@ -10532,7 +10548,7 @@
       <c r="AC330" s="5"/>
       <c r="AD330" s="5"/>
     </row>
-    <row r="331" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C331" s="5"/>
       <c r="D331" s="5"/>
       <c r="E331" s="5"/>
@@ -10562,7 +10578,7 @@
       <c r="AC331" s="5"/>
       <c r="AD331" s="5"/>
     </row>
-    <row r="332" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C332" s="5"/>
       <c r="D332" s="5"/>
       <c r="E332" s="5"/>
@@ -10592,7 +10608,7 @@
       <c r="AC332" s="5"/>
       <c r="AD332" s="5"/>
     </row>
-    <row r="333" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C333" s="5"/>
       <c r="D333" s="5"/>
       <c r="E333" s="5"/>
@@ -10622,7 +10638,7 @@
       <c r="AC333" s="5"/>
       <c r="AD333" s="5"/>
     </row>
-    <row r="334" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C334" s="5"/>
       <c r="D334" s="5"/>
       <c r="E334" s="5"/>
@@ -10652,7 +10668,7 @@
       <c r="AC334" s="5"/>
       <c r="AD334" s="5"/>
     </row>
-    <row r="335" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C335" s="5"/>
       <c r="D335" s="5"/>
       <c r="E335" s="5"/>
@@ -10682,7 +10698,7 @@
       <c r="AC335" s="5"/>
       <c r="AD335" s="5"/>
     </row>
-    <row r="336" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C336" s="5"/>
       <c r="D336" s="5"/>
       <c r="E336" s="5"/>
@@ -10712,7 +10728,7 @@
       <c r="AC336" s="5"/>
       <c r="AD336" s="5"/>
     </row>
-    <row r="337" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C337" s="5"/>
       <c r="D337" s="5"/>
       <c r="E337" s="5"/>
@@ -10742,7 +10758,7 @@
       <c r="AC337" s="5"/>
       <c r="AD337" s="5"/>
     </row>
-    <row r="338" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C338" s="5"/>
       <c r="D338" s="5"/>
       <c r="E338" s="5"/>
@@ -10772,7 +10788,7 @@
       <c r="AC338" s="5"/>
       <c r="AD338" s="5"/>
     </row>
-    <row r="339" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C339" s="5"/>
       <c r="D339" s="5"/>
       <c r="E339" s="5"/>
@@ -10802,7 +10818,7 @@
       <c r="AC339" s="5"/>
       <c r="AD339" s="5"/>
     </row>
-    <row r="340" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C340" s="5"/>
       <c r="D340" s="5"/>
       <c r="E340" s="5"/>
@@ -10832,7 +10848,7 @@
       <c r="AC340" s="5"/>
       <c r="AD340" s="5"/>
     </row>
-    <row r="341" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C341" s="5"/>
       <c r="D341" s="5"/>
       <c r="E341" s="5"/>
@@ -10862,7 +10878,7 @@
       <c r="AC341" s="5"/>
       <c r="AD341" s="5"/>
     </row>
-    <row r="342" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C342" s="5"/>
       <c r="D342" s="5"/>
       <c r="E342" s="5"/>
@@ -10892,7 +10908,7 @@
       <c r="AC342" s="5"/>
       <c r="AD342" s="5"/>
     </row>
-    <row r="343" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C343" s="5"/>
       <c r="D343" s="5"/>
       <c r="E343" s="5"/>
@@ -10922,7 +10938,7 @@
       <c r="AC343" s="5"/>
       <c r="AD343" s="5"/>
     </row>
-    <row r="344" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C344" s="5"/>
       <c r="D344" s="5"/>
       <c r="E344" s="5"/>
@@ -10952,7 +10968,7 @@
       <c r="AC344" s="5"/>
       <c r="AD344" s="5"/>
     </row>
-    <row r="345" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C345" s="5"/>
       <c r="D345" s="5"/>
       <c r="E345" s="5"/>
@@ -10982,7 +10998,7 @@
       <c r="AC345" s="5"/>
       <c r="AD345" s="5"/>
     </row>
-    <row r="346" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C346" s="5"/>
       <c r="D346" s="5"/>
       <c r="E346" s="5"/>
@@ -11012,7 +11028,7 @@
       <c r="AC346" s="5"/>
       <c r="AD346" s="5"/>
     </row>
-    <row r="347" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C347" s="5"/>
       <c r="D347" s="5"/>
       <c r="E347" s="5"/>
@@ -11042,7 +11058,7 @@
       <c r="AC347" s="5"/>
       <c r="AD347" s="5"/>
     </row>
-    <row r="348" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C348" s="5"/>
       <c r="D348" s="5"/>
       <c r="E348" s="5"/>
@@ -11072,7 +11088,7 @@
       <c r="AC348" s="5"/>
       <c r="AD348" s="5"/>
     </row>
-    <row r="349" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C349" s="5"/>
       <c r="D349" s="5"/>
       <c r="E349" s="5"/>
@@ -11102,7 +11118,7 @@
       <c r="AC349" s="5"/>
       <c r="AD349" s="5"/>
     </row>
-    <row r="350" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C350" s="5"/>
       <c r="D350" s="5"/>
       <c r="E350" s="5"/>
@@ -11132,7 +11148,7 @@
       <c r="AC350" s="5"/>
       <c r="AD350" s="5"/>
     </row>
-    <row r="351" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C351" s="5"/>
       <c r="D351" s="5"/>
       <c r="E351" s="5"/>
@@ -11162,7 +11178,7 @@
       <c r="AC351" s="5"/>
       <c r="AD351" s="5"/>
     </row>
-    <row r="352" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C352" s="5"/>
       <c r="D352" s="5"/>
       <c r="E352" s="5"/>
@@ -11192,7 +11208,7 @@
       <c r="AC352" s="5"/>
       <c r="AD352" s="5"/>
     </row>
-    <row r="353" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C353" s="5"/>
       <c r="D353" s="5"/>
       <c r="E353" s="5"/>
@@ -11222,7 +11238,7 @@
       <c r="AC353" s="5"/>
       <c r="AD353" s="5"/>
     </row>
-    <row r="354" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C354" s="5"/>
       <c r="D354" s="5"/>
       <c r="E354" s="5"/>
@@ -11252,7 +11268,7 @@
       <c r="AC354" s="5"/>
       <c r="AD354" s="5"/>
     </row>
-    <row r="355" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C355" s="5"/>
       <c r="D355" s="5"/>
       <c r="E355" s="5"/>
@@ -11282,7 +11298,7 @@
       <c r="AC355" s="5"/>
       <c r="AD355" s="5"/>
     </row>
-    <row r="356" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C356" s="5"/>
       <c r="D356" s="5"/>
       <c r="E356" s="5"/>
@@ -11312,7 +11328,7 @@
       <c r="AC356" s="5"/>
       <c r="AD356" s="5"/>
     </row>
-    <row r="357" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C357" s="5"/>
       <c r="D357" s="5"/>
       <c r="E357" s="5"/>
@@ -11342,7 +11358,7 @@
       <c r="AC357" s="5"/>
       <c r="AD357" s="5"/>
     </row>
-    <row r="358" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C358" s="5"/>
       <c r="D358" s="5"/>
       <c r="E358" s="5"/>
@@ -11372,7 +11388,7 @@
       <c r="AC358" s="5"/>
       <c r="AD358" s="5"/>
     </row>
-    <row r="359" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C359" s="5"/>
       <c r="D359" s="5"/>
       <c r="E359" s="5"/>
@@ -11402,7 +11418,7 @@
       <c r="AC359" s="5"/>
       <c r="AD359" s="5"/>
     </row>
-    <row r="360" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C360" s="5"/>
       <c r="D360" s="5"/>
       <c r="E360" s="5"/>
@@ -11432,7 +11448,7 @@
       <c r="AC360" s="5"/>
       <c r="AD360" s="5"/>
     </row>
-    <row r="361" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C361" s="5"/>
       <c r="D361" s="5"/>
       <c r="E361" s="5"/>
@@ -11462,7 +11478,7 @@
       <c r="AC361" s="5"/>
       <c r="AD361" s="5"/>
     </row>
-    <row r="362" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C362" s="5"/>
       <c r="D362" s="5"/>
       <c r="E362" s="5"/>
@@ -11492,7 +11508,7 @@
       <c r="AC362" s="5"/>
       <c r="AD362" s="5"/>
     </row>
-    <row r="363" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C363" s="5"/>
       <c r="D363" s="5"/>
       <c r="E363" s="5"/>
@@ -11522,7 +11538,7 @@
       <c r="AC363" s="5"/>
       <c r="AD363" s="5"/>
     </row>
-    <row r="364" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C364" s="5"/>
       <c r="D364" s="5"/>
       <c r="E364" s="5"/>
@@ -11552,7 +11568,7 @@
       <c r="AC364" s="5"/>
       <c r="AD364" s="5"/>
     </row>
-    <row r="365" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C365" s="5"/>
       <c r="D365" s="5"/>
       <c r="E365" s="5"/>
@@ -11582,7 +11598,7 @@
       <c r="AC365" s="5"/>
       <c r="AD365" s="5"/>
     </row>
-    <row r="366" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C366" s="5"/>
       <c r="D366" s="5"/>
       <c r="E366" s="5"/>
@@ -11612,7 +11628,7 @@
       <c r="AC366" s="5"/>
       <c r="AD366" s="5"/>
     </row>
-    <row r="367" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C367" s="5"/>
       <c r="D367" s="5"/>
       <c r="E367" s="5"/>
@@ -11642,7 +11658,7 @@
       <c r="AC367" s="5"/>
       <c r="AD367" s="5"/>
     </row>
-    <row r="368" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C368" s="5"/>
       <c r="D368" s="5"/>
       <c r="E368" s="5"/>
@@ -11672,7 +11688,7 @@
       <c r="AC368" s="5"/>
       <c r="AD368" s="5"/>
     </row>
-    <row r="369" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C369" s="5"/>
       <c r="D369" s="5"/>
       <c r="E369" s="5"/>
@@ -11702,7 +11718,7 @@
       <c r="AC369" s="5"/>
       <c r="AD369" s="5"/>
     </row>
-    <row r="370" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C370" s="5"/>
       <c r="D370" s="5"/>
       <c r="E370" s="5"/>
@@ -11732,7 +11748,7 @@
       <c r="AC370" s="5"/>
       <c r="AD370" s="5"/>
     </row>
-    <row r="371" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C371" s="5"/>
       <c r="D371" s="5"/>
       <c r="E371" s="5"/>
@@ -11762,7 +11778,7 @@
       <c r="AC371" s="5"/>
       <c r="AD371" s="5"/>
     </row>
-    <row r="372" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C372" s="5"/>
       <c r="D372" s="5"/>
       <c r="E372" s="5"/>
@@ -11792,7 +11808,7 @@
       <c r="AC372" s="5"/>
       <c r="AD372" s="5"/>
     </row>
-    <row r="373" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C373" s="5"/>
       <c r="D373" s="5"/>
       <c r="E373" s="5"/>
@@ -11822,7 +11838,7 @@
       <c r="AC373" s="5"/>
       <c r="AD373" s="5"/>
     </row>
-    <row r="374" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C374" s="5"/>
       <c r="D374" s="5"/>
       <c r="E374" s="5"/>
@@ -11852,7 +11868,7 @@
       <c r="AC374" s="5"/>
       <c r="AD374" s="5"/>
     </row>
-    <row r="375" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C375" s="5"/>
       <c r="D375" s="5"/>
       <c r="E375" s="5"/>
@@ -11882,7 +11898,7 @@
       <c r="AC375" s="5"/>
       <c r="AD375" s="5"/>
     </row>
-    <row r="376" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C376" s="5"/>
       <c r="D376" s="5"/>
       <c r="E376" s="5"/>
@@ -11912,7 +11928,7 @@
       <c r="AC376" s="5"/>
       <c r="AD376" s="5"/>
     </row>
-    <row r="377" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C377" s="5"/>
       <c r="D377" s="5"/>
       <c r="E377" s="5"/>
@@ -11942,7 +11958,7 @@
       <c r="AC377" s="5"/>
       <c r="AD377" s="5"/>
     </row>
-    <row r="378" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C378" s="5"/>
       <c r="D378" s="5"/>
       <c r="E378" s="5"/>
@@ -11972,7 +11988,7 @@
       <c r="AC378" s="5"/>
       <c r="AD378" s="5"/>
     </row>
-    <row r="379" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C379" s="5"/>
       <c r="D379" s="5"/>
       <c r="E379" s="5"/>
@@ -12002,7 +12018,7 @@
       <c r="AC379" s="5"/>
       <c r="AD379" s="5"/>
     </row>
-    <row r="380" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C380" s="5"/>
       <c r="D380" s="5"/>
       <c r="E380" s="5"/>
@@ -12032,7 +12048,7 @@
       <c r="AC380" s="5"/>
       <c r="AD380" s="5"/>
     </row>
-    <row r="381" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C381" s="5"/>
       <c r="D381" s="5"/>
       <c r="E381" s="5"/>
@@ -12062,7 +12078,7 @@
       <c r="AC381" s="5"/>
       <c r="AD381" s="5"/>
     </row>
-    <row r="382" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C382" s="5"/>
       <c r="D382" s="5"/>
       <c r="E382" s="5"/>
@@ -12092,7 +12108,7 @@
       <c r="AC382" s="5"/>
       <c r="AD382" s="5"/>
     </row>
-    <row r="383" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C383" s="5"/>
       <c r="D383" s="5"/>
       <c r="E383" s="5"/>
@@ -12122,7 +12138,7 @@
       <c r="AC383" s="5"/>
       <c r="AD383" s="5"/>
     </row>
-    <row r="384" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C384" s="5"/>
       <c r="D384" s="5"/>
       <c r="E384" s="5"/>
@@ -12152,7 +12168,7 @@
       <c r="AC384" s="5"/>
       <c r="AD384" s="5"/>
     </row>
-    <row r="385" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C385" s="5"/>
       <c r="D385" s="5"/>
       <c r="E385" s="5"/>
@@ -12182,7 +12198,7 @@
       <c r="AC385" s="5"/>
       <c r="AD385" s="5"/>
     </row>
-    <row r="386" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C386" s="5"/>
       <c r="D386" s="5"/>
       <c r="E386" s="5"/>
@@ -12212,7 +12228,7 @@
       <c r="AC386" s="5"/>
       <c r="AD386" s="5"/>
     </row>
-    <row r="387" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C387" s="5"/>
       <c r="D387" s="5"/>
       <c r="E387" s="5"/>
@@ -12242,7 +12258,7 @@
       <c r="AC387" s="5"/>
       <c r="AD387" s="5"/>
     </row>
-    <row r="388" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C388" s="5"/>
       <c r="D388" s="5"/>
       <c r="E388" s="5"/>
@@ -12272,7 +12288,7 @@
       <c r="AC388" s="5"/>
       <c r="AD388" s="5"/>
     </row>
-    <row r="389" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C389" s="5"/>
       <c r="D389" s="5"/>
       <c r="E389" s="5"/>
@@ -12302,7 +12318,7 @@
       <c r="AC389" s="5"/>
       <c r="AD389" s="5"/>
     </row>
-    <row r="390" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C390" s="5"/>
       <c r="D390" s="5"/>
       <c r="E390" s="5"/>
@@ -12332,7 +12348,7 @@
       <c r="AC390" s="5"/>
       <c r="AD390" s="5"/>
     </row>
-    <row r="391" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C391" s="5"/>
       <c r="D391" s="5"/>
       <c r="E391" s="5"/>
@@ -12362,7 +12378,7 @@
       <c r="AC391" s="5"/>
       <c r="AD391" s="5"/>
     </row>
-    <row r="392" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C392" s="5"/>
       <c r="D392" s="5"/>
       <c r="E392" s="5"/>
@@ -12392,7 +12408,7 @@
       <c r="AC392" s="5"/>
       <c r="AD392" s="5"/>
     </row>
-    <row r="393" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C393" s="5"/>
       <c r="D393" s="5"/>
       <c r="E393" s="5"/>
@@ -12422,7 +12438,7 @@
       <c r="AC393" s="5"/>
       <c r="AD393" s="5"/>
     </row>
-    <row r="394" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C394" s="5"/>
       <c r="D394" s="5"/>
       <c r="E394" s="5"/>
@@ -12452,7 +12468,7 @@
       <c r="AC394" s="5"/>
       <c r="AD394" s="5"/>
     </row>
-    <row r="395" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C395" s="5"/>
       <c r="D395" s="5"/>
       <c r="E395" s="5"/>
@@ -12482,7 +12498,7 @@
       <c r="AC395" s="5"/>
       <c r="AD395" s="5"/>
     </row>
-    <row r="396" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C396" s="5"/>
       <c r="D396" s="5"/>
       <c r="E396" s="5"/>
@@ -12512,7 +12528,7 @@
       <c r="AC396" s="5"/>
       <c r="AD396" s="5"/>
     </row>
-    <row r="397" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C397" s="5"/>
       <c r="D397" s="5"/>
       <c r="E397" s="5"/>
@@ -12542,7 +12558,7 @@
       <c r="AC397" s="5"/>
       <c r="AD397" s="5"/>
     </row>
-    <row r="398" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C398" s="5"/>
       <c r="D398" s="5"/>
       <c r="E398" s="5"/>
@@ -12572,7 +12588,7 @@
       <c r="AC398" s="5"/>
       <c r="AD398" s="5"/>
     </row>
-    <row r="399" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C399" s="5"/>
       <c r="D399" s="5"/>
       <c r="E399" s="5"/>
@@ -12602,7 +12618,7 @@
       <c r="AC399" s="5"/>
       <c r="AD399" s="5"/>
     </row>
-    <row r="400" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C400" s="5"/>
       <c r="D400" s="5"/>
       <c r="E400" s="5"/>
@@ -12632,7 +12648,7 @@
       <c r="AC400" s="5"/>
       <c r="AD400" s="5"/>
     </row>
-    <row r="401" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C401" s="5"/>
       <c r="D401" s="5"/>
       <c r="E401" s="5"/>
@@ -12662,7 +12678,7 @@
       <c r="AC401" s="5"/>
       <c r="AD401" s="5"/>
     </row>
-    <row r="402" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C402" s="5"/>
       <c r="D402" s="5"/>
       <c r="E402" s="5"/>
@@ -12692,7 +12708,7 @@
       <c r="AC402" s="5"/>
       <c r="AD402" s="5"/>
     </row>
-    <row r="403" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C403" s="5"/>
       <c r="D403" s="5"/>
       <c r="E403" s="5"/>
@@ -12722,7 +12738,7 @@
       <c r="AC403" s="5"/>
       <c r="AD403" s="5"/>
     </row>
-    <row r="404" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C404" s="5"/>
       <c r="D404" s="5"/>
       <c r="E404" s="5"/>
@@ -12752,7 +12768,7 @@
       <c r="AC404" s="5"/>
       <c r="AD404" s="5"/>
     </row>
-    <row r="405" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C405" s="5"/>
       <c r="D405" s="5"/>
       <c r="E405" s="5"/>
@@ -12782,7 +12798,7 @@
       <c r="AC405" s="5"/>
       <c r="AD405" s="5"/>
     </row>
-    <row r="406" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C406" s="5"/>
       <c r="D406" s="5"/>
       <c r="E406" s="5"/>
@@ -12812,7 +12828,7 @@
       <c r="AC406" s="5"/>
       <c r="AD406" s="5"/>
     </row>
-    <row r="407" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C407" s="5"/>
       <c r="D407" s="5"/>
       <c r="E407" s="5"/>
@@ -12842,7 +12858,7 @@
       <c r="AC407" s="5"/>
       <c r="AD407" s="5"/>
     </row>
-    <row r="408" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C408" s="5"/>
       <c r="D408" s="5"/>
       <c r="E408" s="5"/>
@@ -12872,7 +12888,7 @@
       <c r="AC408" s="5"/>
       <c r="AD408" s="5"/>
     </row>
-    <row r="409" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C409" s="5"/>
       <c r="D409" s="5"/>
       <c r="E409" s="5"/>
@@ -12902,7 +12918,7 @@
       <c r="AC409" s="5"/>
       <c r="AD409" s="5"/>
     </row>
-    <row r="410" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C410" s="5"/>
       <c r="D410" s="5"/>
       <c r="E410" s="5"/>
@@ -12932,7 +12948,7 @@
       <c r="AC410" s="5"/>
       <c r="AD410" s="5"/>
     </row>
-    <row r="411" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C411" s="5"/>
       <c r="D411" s="5"/>
       <c r="E411" s="5"/>
@@ -12962,7 +12978,7 @@
       <c r="AC411" s="5"/>
       <c r="AD411" s="5"/>
     </row>
-    <row r="412" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C412" s="5"/>
       <c r="D412" s="5"/>
       <c r="E412" s="5"/>
@@ -12992,7 +13008,7 @@
       <c r="AC412" s="5"/>
       <c r="AD412" s="5"/>
     </row>
-    <row r="413" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C413" s="5"/>
       <c r="D413" s="5"/>
       <c r="E413" s="5"/>
@@ -13022,7 +13038,7 @@
       <c r="AC413" s="5"/>
       <c r="AD413" s="5"/>
     </row>
-    <row r="414" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C414" s="5"/>
       <c r="D414" s="5"/>
       <c r="E414" s="5"/>
@@ -13052,7 +13068,7 @@
       <c r="AC414" s="5"/>
       <c r="AD414" s="5"/>
     </row>
-    <row r="415" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C415" s="5"/>
       <c r="D415" s="5"/>
       <c r="E415" s="5"/>
@@ -13082,7 +13098,7 @@
       <c r="AC415" s="5"/>
       <c r="AD415" s="5"/>
     </row>
-    <row r="416" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C416" s="5"/>
       <c r="D416" s="5"/>
       <c r="E416" s="5"/>
@@ -13112,7 +13128,7 @@
       <c r="AC416" s="5"/>
       <c r="AD416" s="5"/>
     </row>
-    <row r="417" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C417" s="5"/>
       <c r="D417" s="5"/>
       <c r="E417" s="5"/>
@@ -13142,7 +13158,7 @@
       <c r="AC417" s="5"/>
       <c r="AD417" s="5"/>
     </row>
-    <row r="418" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C418" s="5"/>
       <c r="D418" s="5"/>
       <c r="E418" s="5"/>
@@ -13172,7 +13188,7 @@
       <c r="AC418" s="5"/>
       <c r="AD418" s="5"/>
     </row>
-    <row r="419" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C419" s="5"/>
       <c r="D419" s="5"/>
       <c r="E419" s="5"/>
@@ -13202,7 +13218,7 @@
       <c r="AC419" s="5"/>
       <c r="AD419" s="5"/>
     </row>
-    <row r="420" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C420" s="5"/>
       <c r="D420" s="5"/>
       <c r="E420" s="5"/>
@@ -13232,7 +13248,7 @@
       <c r="AC420" s="5"/>
       <c r="AD420" s="5"/>
     </row>
-    <row r="421" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C421" s="5"/>
       <c r="D421" s="5"/>
       <c r="E421" s="5"/>
@@ -13262,7 +13278,7 @@
       <c r="AC421" s="5"/>
       <c r="AD421" s="5"/>
     </row>
-    <row r="422" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C422" s="5"/>
       <c r="D422" s="5"/>
       <c r="E422" s="5"/>
@@ -13292,7 +13308,7 @@
       <c r="AC422" s="5"/>
       <c r="AD422" s="5"/>
     </row>
-    <row r="423" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C423" s="5"/>
       <c r="D423" s="5"/>
       <c r="E423" s="5"/>
@@ -13322,7 +13338,7 @@
       <c r="AC423" s="5"/>
       <c r="AD423" s="5"/>
     </row>
-    <row r="424" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C424" s="5"/>
       <c r="D424" s="5"/>
       <c r="E424" s="5"/>
@@ -13352,7 +13368,7 @@
       <c r="AC424" s="5"/>
       <c r="AD424" s="5"/>
     </row>
-    <row r="425" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C425" s="5"/>
       <c r="D425" s="5"/>
       <c r="E425" s="5"/>
@@ -13382,7 +13398,7 @@
       <c r="AC425" s="5"/>
       <c r="AD425" s="5"/>
     </row>
-    <row r="426" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C426" s="5"/>
       <c r="D426" s="5"/>
       <c r="E426" s="5"/>
@@ -13412,7 +13428,7 @@
       <c r="AC426" s="5"/>
       <c r="AD426" s="5"/>
     </row>
-    <row r="427" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C427" s="5"/>
       <c r="D427" s="5"/>
       <c r="E427" s="5"/>
@@ -13442,7 +13458,7 @@
       <c r="AC427" s="5"/>
       <c r="AD427" s="5"/>
     </row>
-    <row r="428" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C428" s="5"/>
       <c r="D428" s="5"/>
       <c r="E428" s="5"/>
@@ -13472,7 +13488,7 @@
       <c r="AC428" s="5"/>
       <c r="AD428" s="5"/>
     </row>
-    <row r="429" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C429" s="5"/>
       <c r="D429" s="5"/>
       <c r="E429" s="5"/>
@@ -13502,7 +13518,7 @@
       <c r="AC429" s="5"/>
       <c r="AD429" s="5"/>
     </row>
-    <row r="430" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C430" s="5"/>
       <c r="D430" s="5"/>
       <c r="E430" s="5"/>
@@ -13532,7 +13548,7 @@
       <c r="AC430" s="5"/>
       <c r="AD430" s="5"/>
     </row>
-    <row r="431" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C431" s="5"/>
       <c r="D431" s="5"/>
       <c r="E431" s="5"/>
@@ -13562,7 +13578,7 @@
       <c r="AC431" s="5"/>
       <c r="AD431" s="5"/>
     </row>
-    <row r="432" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C432" s="5"/>
       <c r="D432" s="5"/>
       <c r="E432" s="5"/>
@@ -13592,7 +13608,7 @@
       <c r="AC432" s="5"/>
       <c r="AD432" s="5"/>
     </row>
-    <row r="433" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C433" s="5"/>
       <c r="D433" s="5"/>
       <c r="E433" s="5"/>
@@ -13622,7 +13638,7 @@
       <c r="AC433" s="5"/>
       <c r="AD433" s="5"/>
     </row>
-    <row r="434" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C434" s="5"/>
       <c r="D434" s="5"/>
       <c r="E434" s="5"/>
@@ -13652,7 +13668,7 @@
       <c r="AC434" s="5"/>
       <c r="AD434" s="5"/>
     </row>
-    <row r="435" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C435" s="5"/>
       <c r="D435" s="5"/>
       <c r="E435" s="5"/>
@@ -13682,7 +13698,7 @@
       <c r="AC435" s="5"/>
       <c r="AD435" s="5"/>
     </row>
-    <row r="436" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C436" s="5"/>
       <c r="D436" s="5"/>
       <c r="E436" s="5"/>
@@ -13712,7 +13728,7 @@
       <c r="AC436" s="5"/>
       <c r="AD436" s="5"/>
     </row>
-    <row r="437" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C437" s="5"/>
       <c r="D437" s="5"/>
       <c r="E437" s="5"/>
@@ -13742,7 +13758,7 @@
       <c r="AC437" s="5"/>
       <c r="AD437" s="5"/>
     </row>
-    <row r="438" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C438" s="5"/>
       <c r="D438" s="5"/>
       <c r="E438" s="5"/>
@@ -13772,7 +13788,7 @@
       <c r="AC438" s="5"/>
       <c r="AD438" s="5"/>
     </row>
-    <row r="439" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C439" s="5"/>
       <c r="D439" s="5"/>
       <c r="E439" s="5"/>
@@ -13802,7 +13818,7 @@
       <c r="AC439" s="5"/>
       <c r="AD439" s="5"/>
     </row>
-    <row r="440" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C440" s="5"/>
       <c r="D440" s="5"/>
       <c r="E440" s="5"/>
@@ -13832,7 +13848,7 @@
       <c r="AC440" s="5"/>
       <c r="AD440" s="5"/>
     </row>
-    <row r="441" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C441" s="5"/>
       <c r="D441" s="5"/>
       <c r="E441" s="5"/>
@@ -13862,7 +13878,7 @@
       <c r="AC441" s="5"/>
       <c r="AD441" s="5"/>
     </row>
-    <row r="442" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C442" s="5"/>
       <c r="D442" s="5"/>
       <c r="E442" s="5"/>
@@ -13892,7 +13908,7 @@
       <c r="AC442" s="5"/>
       <c r="AD442" s="5"/>
     </row>
-    <row r="443" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C443" s="5"/>
       <c r="D443" s="5"/>
       <c r="E443" s="5"/>
@@ -13922,7 +13938,7 @@
       <c r="AC443" s="5"/>
       <c r="AD443" s="5"/>
     </row>
-    <row r="444" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C444" s="5"/>
       <c r="D444" s="5"/>
       <c r="E444" s="5"/>
@@ -13952,7 +13968,7 @@
       <c r="AC444" s="5"/>
       <c r="AD444" s="5"/>
     </row>
-    <row r="445" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C445" s="5"/>
       <c r="D445" s="5"/>
       <c r="E445" s="5"/>
@@ -13982,7 +13998,7 @@
       <c r="AC445" s="5"/>
       <c r="AD445" s="5"/>
     </row>
-    <row r="446" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C446" s="5"/>
       <c r="D446" s="5"/>
       <c r="E446" s="5"/>
@@ -14012,7 +14028,7 @@
       <c r="AC446" s="5"/>
       <c r="AD446" s="5"/>
     </row>
-    <row r="447" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C447" s="5"/>
       <c r="D447" s="5"/>
       <c r="E447" s="5"/>
@@ -14042,7 +14058,7 @@
       <c r="AC447" s="5"/>
       <c r="AD447" s="5"/>
     </row>
-    <row r="448" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C448" s="5"/>
       <c r="D448" s="5"/>
       <c r="E448" s="5"/>
@@ -14072,7 +14088,7 @@
       <c r="AC448" s="5"/>
       <c r="AD448" s="5"/>
     </row>
-    <row r="449" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C449" s="5"/>
       <c r="D449" s="5"/>
       <c r="E449" s="5"/>
@@ -14102,7 +14118,7 @@
       <c r="AC449" s="5"/>
       <c r="AD449" s="5"/>
     </row>
-    <row r="450" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C450" s="5"/>
       <c r="D450" s="5"/>
       <c r="E450" s="5"/>
@@ -14132,7 +14148,7 @@
       <c r="AC450" s="5"/>
       <c r="AD450" s="5"/>
     </row>
-    <row r="451" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="451" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C451" s="5"/>
       <c r="D451" s="5"/>
       <c r="E451" s="5"/>
@@ -14162,7 +14178,7 @@
       <c r="AC451" s="5"/>
       <c r="AD451" s="5"/>
     </row>
-    <row r="452" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="452" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C452" s="5"/>
       <c r="D452" s="5"/>
       <c r="E452" s="5"/>
@@ -14192,7 +14208,7 @@
       <c r="AC452" s="5"/>
       <c r="AD452" s="5"/>
     </row>
-    <row r="453" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="453" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C453" s="5"/>
       <c r="D453" s="5"/>
       <c r="E453" s="5"/>
@@ -14222,7 +14238,7 @@
       <c r="AC453" s="5"/>
       <c r="AD453" s="5"/>
     </row>
-    <row r="454" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C454" s="5"/>
       <c r="D454" s="5"/>
       <c r="E454" s="5"/>
@@ -14252,7 +14268,7 @@
       <c r="AC454" s="5"/>
       <c r="AD454" s="5"/>
     </row>
-    <row r="455" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C455" s="5"/>
       <c r="D455" s="5"/>
       <c r="E455" s="5"/>
@@ -14282,7 +14298,7 @@
       <c r="AC455" s="5"/>
       <c r="AD455" s="5"/>
     </row>
-    <row r="456" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C456" s="5"/>
       <c r="D456" s="5"/>
       <c r="E456" s="5"/>
@@ -14312,7 +14328,7 @@
       <c r="AC456" s="5"/>
       <c r="AD456" s="5"/>
     </row>
-    <row r="457" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="457" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C457" s="5"/>
       <c r="D457" s="5"/>
       <c r="E457" s="5"/>
@@ -14342,7 +14358,7 @@
       <c r="AC457" s="5"/>
       <c r="AD457" s="5"/>
     </row>
-    <row r="458" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="458" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C458" s="5"/>
       <c r="D458" s="5"/>
       <c r="E458" s="5"/>
@@ -14372,7 +14388,7 @@
       <c r="AC458" s="5"/>
       <c r="AD458" s="5"/>
     </row>
-    <row r="459" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="459" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C459" s="5"/>
       <c r="D459" s="5"/>
       <c r="E459" s="5"/>
@@ -14402,7 +14418,7 @@
       <c r="AC459" s="5"/>
       <c r="AD459" s="5"/>
     </row>
-    <row r="460" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="460" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C460" s="5"/>
       <c r="D460" s="5"/>
       <c r="E460" s="5"/>
@@ -14432,7 +14448,7 @@
       <c r="AC460" s="5"/>
       <c r="AD460" s="5"/>
     </row>
-    <row r="461" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="461" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C461" s="5"/>
       <c r="D461" s="5"/>
       <c r="E461" s="5"/>
@@ -14462,7 +14478,7 @@
       <c r="AC461" s="5"/>
       <c r="AD461" s="5"/>
     </row>
-    <row r="462" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="462" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C462" s="5"/>
       <c r="D462" s="5"/>
       <c r="E462" s="5"/>
@@ -14492,7 +14508,7 @@
       <c r="AC462" s="5"/>
       <c r="AD462" s="5"/>
     </row>
-    <row r="463" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="463" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C463" s="5"/>
       <c r="D463" s="5"/>
       <c r="E463" s="5"/>
@@ -14522,7 +14538,7 @@
       <c r="AC463" s="5"/>
       <c r="AD463" s="5"/>
     </row>
-    <row r="464" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="464" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C464" s="5"/>
       <c r="D464" s="5"/>
       <c r="E464" s="5"/>
@@ -14552,7 +14568,7 @@
       <c r="AC464" s="5"/>
       <c r="AD464" s="5"/>
     </row>
-    <row r="465" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="465" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C465" s="5"/>
       <c r="D465" s="5"/>
       <c r="E465" s="5"/>
@@ -14582,7 +14598,7 @@
       <c r="AC465" s="5"/>
       <c r="AD465" s="5"/>
     </row>
-    <row r="466" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="466" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C466" s="5"/>
       <c r="D466" s="5"/>
       <c r="E466" s="5"/>
@@ -14612,7 +14628,7 @@
       <c r="AC466" s="5"/>
       <c r="AD466" s="5"/>
     </row>
-    <row r="467" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="467" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C467" s="5"/>
       <c r="D467" s="5"/>
       <c r="E467" s="5"/>
@@ -14642,7 +14658,7 @@
       <c r="AC467" s="5"/>
       <c r="AD467" s="5"/>
     </row>
-    <row r="468" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="468" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C468" s="5"/>
       <c r="D468" s="5"/>
       <c r="E468" s="5"/>
@@ -14672,7 +14688,7 @@
       <c r="AC468" s="5"/>
       <c r="AD468" s="5"/>
     </row>
-    <row r="469" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="469" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C469" s="5"/>
       <c r="D469" s="5"/>
       <c r="E469" s="5"/>
@@ -14702,7 +14718,7 @@
       <c r="AC469" s="5"/>
       <c r="AD469" s="5"/>
     </row>
-    <row r="470" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="470" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C470" s="5"/>
       <c r="D470" s="5"/>
       <c r="E470" s="5"/>
@@ -14732,7 +14748,7 @@
       <c r="AC470" s="5"/>
       <c r="AD470" s="5"/>
     </row>
-    <row r="471" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="471" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C471" s="5"/>
       <c r="D471" s="5"/>
       <c r="E471" s="5"/>
@@ -14762,7 +14778,7 @@
       <c r="AC471" s="5"/>
       <c r="AD471" s="5"/>
     </row>
-    <row r="472" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="472" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C472" s="5"/>
       <c r="D472" s="5"/>
       <c r="E472" s="5"/>
@@ -14792,7 +14808,7 @@
       <c r="AC472" s="5"/>
       <c r="AD472" s="5"/>
     </row>
-    <row r="473" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="473" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C473" s="5"/>
       <c r="D473" s="5"/>
       <c r="E473" s="5"/>
@@ -14822,7 +14838,7 @@
       <c r="AC473" s="5"/>
       <c r="AD473" s="5"/>
     </row>
-    <row r="474" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="474" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C474" s="5"/>
       <c r="D474" s="5"/>
       <c r="E474" s="5"/>
@@ -14852,7 +14868,7 @@
       <c r="AC474" s="5"/>
       <c r="AD474" s="5"/>
     </row>
-    <row r="475" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="475" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C475" s="5"/>
       <c r="D475" s="5"/>
       <c r="E475" s="5"/>
@@ -14882,7 +14898,7 @@
       <c r="AC475" s="5"/>
       <c r="AD475" s="5"/>
     </row>
-    <row r="476" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="476" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C476" s="5"/>
       <c r="D476" s="5"/>
       <c r="E476" s="5"/>
@@ -14912,7 +14928,7 @@
       <c r="AC476" s="5"/>
       <c r="AD476" s="5"/>
     </row>
-    <row r="477" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="477" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C477" s="5"/>
       <c r="D477" s="5"/>
       <c r="E477" s="5"/>
@@ -14942,7 +14958,7 @@
       <c r="AC477" s="5"/>
       <c r="AD477" s="5"/>
     </row>
-    <row r="478" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="478" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C478" s="5"/>
       <c r="D478" s="5"/>
       <c r="E478" s="5"/>
@@ -14972,7 +14988,7 @@
       <c r="AC478" s="5"/>
       <c r="AD478" s="5"/>
     </row>
-    <row r="479" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="479" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C479" s="5"/>
       <c r="D479" s="5"/>
       <c r="E479" s="5"/>
@@ -15002,7 +15018,7 @@
       <c r="AC479" s="5"/>
       <c r="AD479" s="5"/>
     </row>
-    <row r="480" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="480" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C480" s="5"/>
       <c r="D480" s="5"/>
       <c r="E480" s="5"/>
@@ -15032,7 +15048,7 @@
       <c r="AC480" s="5"/>
       <c r="AD480" s="5"/>
     </row>
-    <row r="481" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="481" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C481" s="5"/>
       <c r="D481" s="5"/>
       <c r="E481" s="5"/>
@@ -15062,7 +15078,7 @@
       <c r="AC481" s="5"/>
       <c r="AD481" s="5"/>
     </row>
-    <row r="482" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="482" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C482" s="5"/>
       <c r="D482" s="5"/>
       <c r="E482" s="5"/>
@@ -15092,7 +15108,7 @@
       <c r="AC482" s="5"/>
       <c r="AD482" s="5"/>
     </row>
-    <row r="483" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="483" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C483" s="5"/>
       <c r="D483" s="5"/>
       <c r="E483" s="5"/>
@@ -15122,7 +15138,7 @@
       <c r="AC483" s="5"/>
       <c r="AD483" s="5"/>
     </row>
-    <row r="484" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="484" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C484" s="5"/>
       <c r="D484" s="5"/>
       <c r="E484" s="5"/>
@@ -15152,7 +15168,7 @@
       <c r="AC484" s="5"/>
       <c r="AD484" s="5"/>
     </row>
-    <row r="485" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="485" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C485" s="5"/>
       <c r="D485" s="5"/>
       <c r="E485" s="5"/>
@@ -15182,7 +15198,7 @@
       <c r="AC485" s="5"/>
       <c r="AD485" s="5"/>
     </row>
-    <row r="486" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="486" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C486" s="5"/>
       <c r="D486" s="5"/>
       <c r="E486" s="5"/>
@@ -15212,7 +15228,7 @@
       <c r="AC486" s="5"/>
       <c r="AD486" s="5"/>
     </row>
-    <row r="487" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="487" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C487" s="5"/>
       <c r="D487" s="5"/>
       <c r="E487" s="5"/>
@@ -15242,7 +15258,7 @@
       <c r="AC487" s="5"/>
       <c r="AD487" s="5"/>
     </row>
-    <row r="488" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="488" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C488" s="5"/>
       <c r="D488" s="5"/>
       <c r="E488" s="5"/>
@@ -15272,7 +15288,7 @@
       <c r="AC488" s="5"/>
       <c r="AD488" s="5"/>
     </row>
-    <row r="489" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="489" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C489" s="5"/>
       <c r="D489" s="5"/>
       <c r="E489" s="5"/>
@@ -15302,7 +15318,7 @@
       <c r="AC489" s="5"/>
       <c r="AD489" s="5"/>
     </row>
-    <row r="490" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="490" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C490" s="5"/>
       <c r="D490" s="5"/>
       <c r="E490" s="5"/>
@@ -15332,7 +15348,7 @@
       <c r="AC490" s="5"/>
       <c r="AD490" s="5"/>
     </row>
-    <row r="491" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="491" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C491" s="5"/>
       <c r="D491" s="5"/>
       <c r="E491" s="5"/>
@@ -15362,7 +15378,7 @@
       <c r="AC491" s="5"/>
       <c r="AD491" s="5"/>
     </row>
-    <row r="492" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="492" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C492" s="5"/>
       <c r="D492" s="5"/>
       <c r="E492" s="5"/>
@@ -15392,7 +15408,7 @@
       <c r="AC492" s="5"/>
       <c r="AD492" s="5"/>
     </row>
-    <row r="493" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="493" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C493" s="5"/>
       <c r="D493" s="5"/>
       <c r="E493" s="5"/>
@@ -15422,7 +15438,7 @@
       <c r="AC493" s="5"/>
       <c r="AD493" s="5"/>
     </row>
-    <row r="494" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="494" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C494" s="5"/>
       <c r="D494" s="5"/>
       <c r="E494" s="5"/>
@@ -15452,7 +15468,7 @@
       <c r="AC494" s="5"/>
       <c r="AD494" s="5"/>
     </row>
-    <row r="495" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="495" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C495" s="5"/>
       <c r="D495" s="5"/>
       <c r="E495" s="5"/>
@@ -15482,7 +15498,7 @@
       <c r="AC495" s="5"/>
       <c r="AD495" s="5"/>
     </row>
-    <row r="496" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="496" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C496" s="5"/>
       <c r="D496" s="5"/>
       <c r="E496" s="5"/>
@@ -15512,7 +15528,7 @@
       <c r="AC496" s="5"/>
       <c r="AD496" s="5"/>
     </row>
-    <row r="497" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="497" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C497" s="5"/>
       <c r="D497" s="5"/>
       <c r="E497" s="5"/>
@@ -15542,7 +15558,7 @@
       <c r="AC497" s="5"/>
       <c r="AD497" s="5"/>
     </row>
-    <row r="498" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="498" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C498" s="5"/>
       <c r="D498" s="5"/>
       <c r="E498" s="5"/>
@@ -15572,7 +15588,7 @@
       <c r="AC498" s="5"/>
       <c r="AD498" s="5"/>
     </row>
-    <row r="499" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="499" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C499" s="5"/>
       <c r="D499" s="5"/>
       <c r="E499" s="5"/>
@@ -15602,7 +15618,7 @@
       <c r="AC499" s="5"/>
       <c r="AD499" s="5"/>
     </row>
-    <row r="500" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="500" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C500" s="5"/>
       <c r="D500" s="5"/>
       <c r="E500" s="5"/>
@@ -15632,7 +15648,7 @@
       <c r="AC500" s="5"/>
       <c r="AD500" s="5"/>
     </row>
-    <row r="501" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="501" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C501" s="5"/>
       <c r="D501" s="5"/>
       <c r="E501" s="5"/>
@@ -15662,7 +15678,7 @@
       <c r="AC501" s="5"/>
       <c r="AD501" s="5"/>
     </row>
-    <row r="502" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="502" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C502" s="5"/>
       <c r="D502" s="5"/>
       <c r="E502" s="5"/>
@@ -15692,7 +15708,7 @@
       <c r="AC502" s="5"/>
       <c r="AD502" s="5"/>
     </row>
-    <row r="503" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="503" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C503" s="5"/>
       <c r="D503" s="5"/>
       <c r="E503" s="5"/>
@@ -15722,7 +15738,7 @@
       <c r="AC503" s="5"/>
       <c r="AD503" s="5"/>
     </row>
-    <row r="504" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="504" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C504" s="5"/>
       <c r="D504" s="5"/>
       <c r="E504" s="5"/>
@@ -15752,7 +15768,7 @@
       <c r="AC504" s="5"/>
       <c r="AD504" s="5"/>
     </row>
-    <row r="505" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="505" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C505" s="5"/>
       <c r="D505" s="5"/>
       <c r="E505" s="5"/>
@@ -15782,7 +15798,7 @@
       <c r="AC505" s="5"/>
       <c r="AD505" s="5"/>
     </row>
-    <row r="506" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="506" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C506" s="5"/>
       <c r="D506" s="5"/>
       <c r="E506" s="5"/>
@@ -15812,7 +15828,7 @@
       <c r="AC506" s="5"/>
       <c r="AD506" s="5"/>
     </row>
-    <row r="507" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="507" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C507" s="5"/>
       <c r="D507" s="5"/>
       <c r="E507" s="5"/>
@@ -15842,7 +15858,7 @@
       <c r="AC507" s="5"/>
       <c r="AD507" s="5"/>
     </row>
-    <row r="508" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="508" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C508" s="5"/>
       <c r="D508" s="5"/>
       <c r="E508" s="5"/>
@@ -15872,7 +15888,7 @@
       <c r="AC508" s="5"/>
       <c r="AD508" s="5"/>
     </row>
-    <row r="509" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="509" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C509" s="5"/>
       <c r="D509" s="5"/>
       <c r="E509" s="5"/>
@@ -15902,7 +15918,7 @@
       <c r="AC509" s="5"/>
       <c r="AD509" s="5"/>
     </row>
-    <row r="510" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="510" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C510" s="5"/>
       <c r="D510" s="5"/>
       <c r="E510" s="5"/>
@@ -15932,7 +15948,7 @@
       <c r="AC510" s="5"/>
       <c r="AD510" s="5"/>
     </row>
-    <row r="511" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="511" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C511" s="5"/>
       <c r="D511" s="5"/>
       <c r="E511" s="5"/>
@@ -15962,7 +15978,7 @@
       <c r="AC511" s="5"/>
       <c r="AD511" s="5"/>
     </row>
-    <row r="512" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="512" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C512" s="5"/>
       <c r="D512" s="5"/>
       <c r="E512" s="5"/>
@@ -15992,7 +16008,7 @@
       <c r="AC512" s="5"/>
       <c r="AD512" s="5"/>
     </row>
-    <row r="513" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="513" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C513" s="5"/>
       <c r="D513" s="5"/>
       <c r="E513" s="5"/>
@@ -16022,7 +16038,7 @@
       <c r="AC513" s="5"/>
       <c r="AD513" s="5"/>
     </row>
-    <row r="514" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="514" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C514" s="5"/>
       <c r="D514" s="5"/>
       <c r="E514" s="5"/>
@@ -16052,7 +16068,7 @@
       <c r="AC514" s="5"/>
       <c r="AD514" s="5"/>
     </row>
-    <row r="515" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="515" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C515" s="5"/>
       <c r="D515" s="5"/>
       <c r="E515" s="5"/>
@@ -16082,7 +16098,7 @@
       <c r="AC515" s="5"/>
       <c r="AD515" s="5"/>
     </row>
-    <row r="516" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="516" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C516" s="5"/>
       <c r="D516" s="5"/>
       <c r="E516" s="5"/>
@@ -16112,7 +16128,7 @@
       <c r="AC516" s="5"/>
       <c r="AD516" s="5"/>
     </row>
-    <row r="517" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="517" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C517" s="5"/>
       <c r="D517" s="5"/>
       <c r="E517" s="5"/>
@@ -16142,7 +16158,7 @@
       <c r="AC517" s="5"/>
       <c r="AD517" s="5"/>
     </row>
-    <row r="518" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="518" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C518" s="5"/>
       <c r="D518" s="5"/>
       <c r="E518" s="5"/>
@@ -16172,7 +16188,7 @@
       <c r="AC518" s="5"/>
       <c r="AD518" s="5"/>
     </row>
-    <row r="519" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="519" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C519" s="5"/>
       <c r="D519" s="5"/>
       <c r="E519" s="5"/>
@@ -16202,7 +16218,7 @@
       <c r="AC519" s="5"/>
       <c r="AD519" s="5"/>
     </row>
-    <row r="520" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="520" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C520" s="5"/>
       <c r="D520" s="5"/>
       <c r="E520" s="5"/>
@@ -16232,7 +16248,7 @@
       <c r="AC520" s="5"/>
       <c r="AD520" s="5"/>
     </row>
-    <row r="521" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="521" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C521" s="5"/>
       <c r="D521" s="5"/>
       <c r="E521" s="5"/>
@@ -16262,7 +16278,7 @@
       <c r="AC521" s="5"/>
       <c r="AD521" s="5"/>
     </row>
-    <row r="522" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="522" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C522" s="5"/>
       <c r="D522" s="5"/>
       <c r="E522" s="5"/>
@@ -16292,7 +16308,7 @@
       <c r="AC522" s="5"/>
       <c r="AD522" s="5"/>
     </row>
-    <row r="523" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="523" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C523" s="5"/>
       <c r="D523" s="5"/>
       <c r="E523" s="5"/>
@@ -16322,7 +16338,7 @@
       <c r="AC523" s="5"/>
       <c r="AD523" s="5"/>
     </row>
-    <row r="524" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="524" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C524" s="5"/>
       <c r="D524" s="5"/>
       <c r="E524" s="5"/>
@@ -16352,7 +16368,7 @@
       <c r="AC524" s="5"/>
       <c r="AD524" s="5"/>
     </row>
-    <row r="525" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="525" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C525" s="5"/>
       <c r="D525" s="5"/>
       <c r="E525" s="5"/>
@@ -16382,7 +16398,7 @@
       <c r="AC525" s="5"/>
       <c r="AD525" s="5"/>
     </row>
-    <row r="526" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="526" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C526" s="5"/>
       <c r="D526" s="5"/>
       <c r="E526" s="5"/>
@@ -16412,7 +16428,7 @@
       <c r="AC526" s="5"/>
       <c r="AD526" s="5"/>
     </row>
-    <row r="527" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="527" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C527" s="5"/>
       <c r="D527" s="5"/>
       <c r="E527" s="5"/>
@@ -16442,7 +16458,7 @@
       <c r="AC527" s="5"/>
       <c r="AD527" s="5"/>
     </row>
-    <row r="528" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="528" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C528" s="5"/>
       <c r="D528" s="5"/>
       <c r="E528" s="5"/>
@@ -16472,7 +16488,7 @@
       <c r="AC528" s="5"/>
       <c r="AD528" s="5"/>
     </row>
-    <row r="529" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="529" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C529" s="5"/>
       <c r="D529" s="5"/>
       <c r="E529" s="5"/>
@@ -16502,7 +16518,7 @@
       <c r="AC529" s="5"/>
       <c r="AD529" s="5"/>
     </row>
-    <row r="530" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="530" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C530" s="5"/>
       <c r="D530" s="5"/>
       <c r="E530" s="5"/>
@@ -16532,7 +16548,7 @@
       <c r="AC530" s="5"/>
       <c r="AD530" s="5"/>
     </row>
-    <row r="531" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="531" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C531" s="5"/>
       <c r="D531" s="5"/>
       <c r="E531" s="5"/>
@@ -16562,7 +16578,7 @@
       <c r="AC531" s="5"/>
       <c r="AD531" s="5"/>
     </row>
-    <row r="532" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="532" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C532" s="5"/>
       <c r="D532" s="5"/>
       <c r="E532" s="5"/>
@@ -16592,7 +16608,7 @@
       <c r="AC532" s="5"/>
       <c r="AD532" s="5"/>
     </row>
-    <row r="533" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="533" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C533" s="5"/>
       <c r="D533" s="5"/>
       <c r="E533" s="5"/>
@@ -16622,7 +16638,7 @@
       <c r="AC533" s="5"/>
       <c r="AD533" s="5"/>
     </row>
-    <row r="534" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="534" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C534" s="5"/>
       <c r="D534" s="5"/>
       <c r="E534" s="5"/>
@@ -16652,7 +16668,7 @@
       <c r="AC534" s="5"/>
       <c r="AD534" s="5"/>
     </row>
-    <row r="535" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="535" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C535" s="5"/>
       <c r="D535" s="5"/>
       <c r="E535" s="5"/>
@@ -16682,7 +16698,7 @@
       <c r="AC535" s="5"/>
       <c r="AD535" s="5"/>
     </row>
-    <row r="536" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="536" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C536" s="5"/>
       <c r="D536" s="5"/>
       <c r="E536" s="5"/>
@@ -16712,7 +16728,7 @@
       <c r="AC536" s="5"/>
       <c r="AD536" s="5"/>
     </row>
-    <row r="537" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="537" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C537" s="5"/>
       <c r="D537" s="5"/>
       <c r="E537" s="5"/>
@@ -16742,7 +16758,7 @@
       <c r="AC537" s="5"/>
       <c r="AD537" s="5"/>
     </row>
-    <row r="538" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="538" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C538" s="5"/>
       <c r="D538" s="5"/>
       <c r="E538" s="5"/>
@@ -16772,7 +16788,7 @@
       <c r="AC538" s="5"/>
       <c r="AD538" s="5"/>
     </row>
-    <row r="539" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="539" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C539" s="5"/>
       <c r="D539" s="5"/>
       <c r="E539" s="5"/>
@@ -16802,7 +16818,7 @@
       <c r="AC539" s="5"/>
       <c r="AD539" s="5"/>
     </row>
-    <row r="540" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="540" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C540" s="5"/>
       <c r="D540" s="5"/>
       <c r="E540" s="5"/>
@@ -16832,7 +16848,7 @@
       <c r="AC540" s="5"/>
       <c r="AD540" s="5"/>
     </row>
-    <row r="541" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="541" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C541" s="5"/>
       <c r="D541" s="5"/>
       <c r="E541" s="5"/>
@@ -16862,7 +16878,7 @@
       <c r="AC541" s="5"/>
       <c r="AD541" s="5"/>
     </row>
-    <row r="542" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="542" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C542" s="5"/>
       <c r="D542" s="5"/>
       <c r="E542" s="5"/>
@@ -16892,7 +16908,7 @@
       <c r="AC542" s="5"/>
       <c r="AD542" s="5"/>
     </row>
-    <row r="543" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="543" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C543" s="5"/>
       <c r="D543" s="5"/>
       <c r="E543" s="5"/>
@@ -16922,7 +16938,7 @@
       <c r="AC543" s="5"/>
       <c r="AD543" s="5"/>
     </row>
-    <row r="544" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="544" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C544" s="5"/>
       <c r="D544" s="5"/>
       <c r="E544" s="5"/>
@@ -16952,7 +16968,7 @@
       <c r="AC544" s="5"/>
       <c r="AD544" s="5"/>
     </row>
-    <row r="545" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="545" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C545" s="5"/>
       <c r="D545" s="5"/>
       <c r="E545" s="5"/>
@@ -16982,7 +16998,7 @@
       <c r="AC545" s="5"/>
       <c r="AD545" s="5"/>
     </row>
-    <row r="546" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="546" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C546" s="5"/>
       <c r="D546" s="5"/>
       <c r="E546" s="5"/>
@@ -17012,7 +17028,7 @@
       <c r="AC546" s="5"/>
       <c r="AD546" s="5"/>
     </row>
-    <row r="547" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="547" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C547" s="5"/>
       <c r="D547" s="5"/>
       <c r="E547" s="5"/>
@@ -17042,7 +17058,7 @@
       <c r="AC547" s="5"/>
       <c r="AD547" s="5"/>
     </row>
-    <row r="548" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="548" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C548" s="5"/>
       <c r="D548" s="5"/>
       <c r="E548" s="5"/>
@@ -17072,7 +17088,7 @@
       <c r="AC548" s="5"/>
       <c r="AD548" s="5"/>
     </row>
-    <row r="549" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="549" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C549" s="5"/>
       <c r="D549" s="5"/>
       <c r="E549" s="5"/>
@@ -17102,7 +17118,7 @@
       <c r="AC549" s="5"/>
       <c r="AD549" s="5"/>
     </row>
-    <row r="550" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="550" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C550" s="5"/>
       <c r="D550" s="5"/>
       <c r="E550" s="5"/>
@@ -17132,7 +17148,7 @@
       <c r="AC550" s="5"/>
       <c r="AD550" s="5"/>
     </row>
-    <row r="551" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="551" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C551" s="5"/>
       <c r="D551" s="5"/>
       <c r="E551" s="5"/>
@@ -17162,7 +17178,7 @@
       <c r="AC551" s="5"/>
       <c r="AD551" s="5"/>
     </row>
-    <row r="552" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="552" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C552" s="5"/>
       <c r="D552" s="5"/>
       <c r="E552" s="5"/>
@@ -17192,7 +17208,7 @@
       <c r="AC552" s="5"/>
       <c r="AD552" s="5"/>
     </row>
-    <row r="553" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="553" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C553" s="5"/>
       <c r="D553" s="5"/>
       <c r="E553" s="5"/>
@@ -17222,7 +17238,7 @@
       <c r="AC553" s="5"/>
       <c r="AD553" s="5"/>
     </row>
-    <row r="554" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="554" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C554" s="5"/>
       <c r="D554" s="5"/>
       <c r="E554" s="5"/>
@@ -17252,7 +17268,7 @@
       <c r="AC554" s="5"/>
       <c r="AD554" s="5"/>
     </row>
-    <row r="555" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="555" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C555" s="5"/>
       <c r="D555" s="5"/>
       <c r="E555" s="5"/>
@@ -17282,7 +17298,7 @@
       <c r="AC555" s="5"/>
       <c r="AD555" s="5"/>
     </row>
-    <row r="556" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="556" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C556" s="5"/>
       <c r="D556" s="5"/>
       <c r="E556" s="5"/>
@@ -17312,7 +17328,7 @@
       <c r="AC556" s="5"/>
       <c r="AD556" s="5"/>
     </row>
-    <row r="557" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="557" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C557" s="5"/>
       <c r="D557" s="5"/>
       <c r="E557" s="5"/>
@@ -17342,7 +17358,7 @@
       <c r="AC557" s="5"/>
       <c r="AD557" s="5"/>
     </row>
-    <row r="558" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="558" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C558" s="5"/>
       <c r="D558" s="5"/>
       <c r="E558" s="5"/>
@@ -17372,7 +17388,7 @@
       <c r="AC558" s="5"/>
       <c r="AD558" s="5"/>
     </row>
-    <row r="559" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="559" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C559" s="5"/>
       <c r="D559" s="5"/>
       <c r="E559" s="5"/>
@@ -17402,7 +17418,7 @@
       <c r="AC559" s="5"/>
       <c r="AD559" s="5"/>
     </row>
-    <row r="560" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="560" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C560" s="5"/>
       <c r="D560" s="5"/>
       <c r="E560" s="5"/>
@@ -17432,7 +17448,7 @@
       <c r="AC560" s="5"/>
       <c r="AD560" s="5"/>
     </row>
-    <row r="561" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="561" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C561" s="5"/>
       <c r="D561" s="5"/>
       <c r="E561" s="5"/>
@@ -17462,7 +17478,7 @@
       <c r="AC561" s="5"/>
       <c r="AD561" s="5"/>
     </row>
-    <row r="562" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="562" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C562" s="5"/>
       <c r="D562" s="5"/>
       <c r="E562" s="5"/>
@@ -17492,7 +17508,7 @@
       <c r="AC562" s="5"/>
       <c r="AD562" s="5"/>
     </row>
-    <row r="563" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="563" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C563" s="5"/>
       <c r="D563" s="5"/>
       <c r="E563" s="5"/>
@@ -17522,7 +17538,7 @@
       <c r="AC563" s="5"/>
       <c r="AD563" s="5"/>
     </row>
-    <row r="564" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="564" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C564" s="5"/>
       <c r="D564" s="5"/>
       <c r="E564" s="5"/>
@@ -17552,7 +17568,7 @@
       <c r="AC564" s="5"/>
       <c r="AD564" s="5"/>
     </row>
-    <row r="565" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="565" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C565" s="5"/>
       <c r="D565" s="5"/>
       <c r="E565" s="5"/>
@@ -17582,7 +17598,7 @@
       <c r="AC565" s="5"/>
       <c r="AD565" s="5"/>
     </row>
-    <row r="566" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="566" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C566" s="5"/>
       <c r="D566" s="5"/>
       <c r="E566" s="5"/>
@@ -17612,7 +17628,7 @@
       <c r="AC566" s="5"/>
       <c r="AD566" s="5"/>
     </row>
-    <row r="567" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="567" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C567" s="5"/>
       <c r="D567" s="5"/>
       <c r="E567" s="5"/>
@@ -17642,7 +17658,7 @@
       <c r="AC567" s="5"/>
       <c r="AD567" s="5"/>
     </row>
-    <row r="568" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="568" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C568" s="5"/>
       <c r="D568" s="5"/>
       <c r="E568" s="5"/>
@@ -17672,7 +17688,7 @@
       <c r="AC568" s="5"/>
       <c r="AD568" s="5"/>
     </row>
-    <row r="569" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="569" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C569" s="5"/>
       <c r="D569" s="5"/>
       <c r="E569" s="5"/>
@@ -17702,7 +17718,7 @@
       <c r="AC569" s="5"/>
       <c r="AD569" s="5"/>
     </row>
-    <row r="570" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="570" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C570" s="5"/>
       <c r="D570" s="5"/>
       <c r="E570" s="5"/>
@@ -17732,7 +17748,7 @@
       <c r="AC570" s="5"/>
       <c r="AD570" s="5"/>
     </row>
-    <row r="571" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="571" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C571" s="5"/>
       <c r="D571" s="5"/>
       <c r="E571" s="5"/>
@@ -17762,7 +17778,7 @@
       <c r="AC571" s="5"/>
       <c r="AD571" s="5"/>
     </row>
-    <row r="572" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="572" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C572" s="5"/>
       <c r="D572" s="5"/>
       <c r="E572" s="5"/>
@@ -17792,7 +17808,7 @@
       <c r="AC572" s="5"/>
       <c r="AD572" s="5"/>
     </row>
-    <row r="573" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="573" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C573" s="5"/>
       <c r="D573" s="5"/>
       <c r="E573" s="5"/>
@@ -17822,7 +17838,7 @@
       <c r="AC573" s="5"/>
       <c r="AD573" s="5"/>
     </row>
-    <row r="574" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="574" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C574" s="5"/>
       <c r="D574" s="5"/>
       <c r="E574" s="5"/>
@@ -17852,7 +17868,7 @@
       <c r="AC574" s="5"/>
       <c r="AD574" s="5"/>
     </row>
-    <row r="575" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="575" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C575" s="5"/>
       <c r="D575" s="5"/>
       <c r="E575" s="5"/>
@@ -17882,7 +17898,7 @@
       <c r="AC575" s="5"/>
       <c r="AD575" s="5"/>
     </row>
-    <row r="576" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="576" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C576" s="5"/>
       <c r="D576" s="5"/>
       <c r="E576" s="5"/>
@@ -17912,7 +17928,7 @@
       <c r="AC576" s="5"/>
       <c r="AD576" s="5"/>
     </row>
-    <row r="577" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="577" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C577" s="5"/>
       <c r="D577" s="5"/>
       <c r="E577" s="5"/>
@@ -17942,7 +17958,7 @@
       <c r="AC577" s="5"/>
       <c r="AD577" s="5"/>
     </row>
-    <row r="578" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="578" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C578" s="5"/>
       <c r="D578" s="5"/>
       <c r="E578" s="5"/>
@@ -17972,7 +17988,7 @@
       <c r="AC578" s="5"/>
       <c r="AD578" s="5"/>
     </row>
-    <row r="579" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="579" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C579" s="5"/>
       <c r="D579" s="5"/>
       <c r="E579" s="5"/>
@@ -18002,7 +18018,7 @@
       <c r="AC579" s="5"/>
       <c r="AD579" s="5"/>
     </row>
-    <row r="580" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="580" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C580" s="5"/>
       <c r="D580" s="5"/>
       <c r="E580" s="5"/>
@@ -18032,7 +18048,7 @@
       <c r="AC580" s="5"/>
       <c r="AD580" s="5"/>
     </row>
-    <row r="581" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="581" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C581" s="5"/>
       <c r="D581" s="5"/>
       <c r="E581" s="5"/>
@@ -18062,7 +18078,7 @@
       <c r="AC581" s="5"/>
       <c r="AD581" s="5"/>
     </row>
-    <row r="582" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="582" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C582" s="5"/>
       <c r="D582" s="5"/>
       <c r="E582" s="5"/>
@@ -18092,7 +18108,7 @@
       <c r="AC582" s="5"/>
       <c r="AD582" s="5"/>
     </row>
-    <row r="583" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="583" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C583" s="5"/>
       <c r="D583" s="5"/>
       <c r="E583" s="5"/>
@@ -18122,7 +18138,7 @@
       <c r="AC583" s="5"/>
       <c r="AD583" s="5"/>
     </row>
-    <row r="584" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="584" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C584" s="5"/>
       <c r="D584" s="5"/>
       <c r="E584" s="5"/>
@@ -18152,7 +18168,7 @@
       <c r="AC584" s="5"/>
       <c r="AD584" s="5"/>
     </row>
-    <row r="585" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="585" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C585" s="5"/>
       <c r="D585" s="5"/>
       <c r="E585" s="5"/>
@@ -18182,7 +18198,7 @@
       <c r="AC585" s="5"/>
       <c r="AD585" s="5"/>
     </row>
-    <row r="586" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="586" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C586" s="5"/>
       <c r="D586" s="5"/>
       <c r="E586" s="5"/>
@@ -18212,7 +18228,7 @@
       <c r="AC586" s="5"/>
       <c r="AD586" s="5"/>
     </row>
-    <row r="587" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="587" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C587" s="5"/>
       <c r="D587" s="5"/>
       <c r="E587" s="5"/>
@@ -18242,7 +18258,7 @@
       <c r="AC587" s="5"/>
       <c r="AD587" s="5"/>
     </row>
-    <row r="588" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="588" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C588" s="5"/>
       <c r="D588" s="5"/>
       <c r="E588" s="5"/>
@@ -18272,7 +18288,7 @@
       <c r="AC588" s="5"/>
       <c r="AD588" s="5"/>
     </row>
-    <row r="589" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="589" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C589" s="5"/>
       <c r="D589" s="5"/>
       <c r="E589" s="5"/>
@@ -18302,7 +18318,7 @@
       <c r="AC589" s="5"/>
       <c r="AD589" s="5"/>
     </row>
-    <row r="590" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="590" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C590" s="5"/>
       <c r="D590" s="5"/>
       <c r="E590" s="5"/>
@@ -18332,7 +18348,7 @@
       <c r="AC590" s="5"/>
       <c r="AD590" s="5"/>
     </row>
-    <row r="591" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="591" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C591" s="5"/>
       <c r="D591" s="5"/>
       <c r="E591" s="5"/>
@@ -18362,7 +18378,7 @@
       <c r="AC591" s="5"/>
       <c r="AD591" s="5"/>
     </row>
-    <row r="592" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="592" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C592" s="5"/>
       <c r="D592" s="5"/>
       <c r="E592" s="5"/>
@@ -18392,7 +18408,7 @@
       <c r="AC592" s="5"/>
       <c r="AD592" s="5"/>
     </row>
-    <row r="593" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="593" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C593" s="5"/>
       <c r="D593" s="5"/>
       <c r="E593" s="5"/>
@@ -18422,7 +18438,7 @@
       <c r="AC593" s="5"/>
       <c r="AD593" s="5"/>
     </row>
-    <row r="594" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="594" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C594" s="5"/>
       <c r="D594" s="5"/>
       <c r="E594" s="5"/>
@@ -18452,7 +18468,7 @@
       <c r="AC594" s="5"/>
       <c r="AD594" s="5"/>
     </row>
-    <row r="595" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="595" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C595" s="5"/>
       <c r="D595" s="5"/>
       <c r="E595" s="5"/>
@@ -18482,7 +18498,7 @@
       <c r="AC595" s="5"/>
       <c r="AD595" s="5"/>
     </row>
-    <row r="596" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="596" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C596" s="5"/>
       <c r="D596" s="5"/>
       <c r="E596" s="5"/>
@@ -18512,7 +18528,7 @@
       <c r="AC596" s="5"/>
       <c r="AD596" s="5"/>
     </row>
-    <row r="597" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="597" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C597" s="5"/>
       <c r="D597" s="5"/>
       <c r="E597" s="5"/>
@@ -18542,7 +18558,7 @@
       <c r="AC597" s="5"/>
       <c r="AD597" s="5"/>
     </row>
-    <row r="598" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="598" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C598" s="5"/>
       <c r="D598" s="5"/>
       <c r="E598" s="5"/>
@@ -18572,7 +18588,7 @@
       <c r="AC598" s="5"/>
       <c r="AD598" s="5"/>
     </row>
-    <row r="599" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="599" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C599" s="5"/>
       <c r="D599" s="5"/>
       <c r="E599" s="5"/>
@@ -18602,7 +18618,7 @@
       <c r="AC599" s="5"/>
       <c r="AD599" s="5"/>
     </row>
-    <row r="600" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="600" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C600" s="5"/>
       <c r="D600" s="5"/>
       <c r="E600" s="5"/>
@@ -18632,7 +18648,7 @@
       <c r="AC600" s="5"/>
       <c r="AD600" s="5"/>
     </row>
-    <row r="601" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="601" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C601" s="5"/>
       <c r="D601" s="5"/>
       <c r="E601" s="5"/>
@@ -18662,7 +18678,7 @@
       <c r="AC601" s="5"/>
       <c r="AD601" s="5"/>
     </row>
-    <row r="602" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="602" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C602" s="5"/>
       <c r="D602" s="5"/>
       <c r="E602" s="5"/>
@@ -18692,7 +18708,7 @@
       <c r="AC602" s="5"/>
       <c r="AD602" s="5"/>
     </row>
-    <row r="603" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="603" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C603" s="5"/>
       <c r="D603" s="5"/>
       <c r="E603" s="5"/>
@@ -18722,7 +18738,7 @@
       <c r="AC603" s="5"/>
       <c r="AD603" s="5"/>
     </row>
-    <row r="604" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="604" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C604" s="5"/>
       <c r="D604" s="5"/>
       <c r="E604" s="5"/>
@@ -18752,7 +18768,7 @@
       <c r="AC604" s="5"/>
       <c r="AD604" s="5"/>
     </row>
-    <row r="605" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="605" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C605" s="5"/>
       <c r="D605" s="5"/>
       <c r="E605" s="5"/>
@@ -18782,7 +18798,7 @@
       <c r="AC605" s="5"/>
       <c r="AD605" s="5"/>
     </row>
-    <row r="606" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="606" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C606" s="5"/>
       <c r="D606" s="5"/>
       <c r="E606" s="5"/>
@@ -18812,7 +18828,7 @@
       <c r="AC606" s="5"/>
       <c r="AD606" s="5"/>
     </row>
-    <row r="607" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="607" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C607" s="5"/>
       <c r="D607" s="5"/>
       <c r="E607" s="5"/>
@@ -18842,7 +18858,7 @@
       <c r="AC607" s="5"/>
       <c r="AD607" s="5"/>
     </row>
-    <row r="608" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="608" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C608" s="5"/>
       <c r="D608" s="5"/>
       <c r="E608" s="5"/>
@@ -18872,7 +18888,7 @@
       <c r="AC608" s="5"/>
       <c r="AD608" s="5"/>
     </row>
-    <row r="609" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="609" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C609" s="5"/>
       <c r="D609" s="5"/>
       <c r="E609" s="5"/>
@@ -18902,7 +18918,7 @@
       <c r="AC609" s="5"/>
       <c r="AD609" s="5"/>
     </row>
-    <row r="610" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="610" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C610" s="5"/>
       <c r="D610" s="5"/>
       <c r="E610" s="5"/>
@@ -18932,7 +18948,7 @@
       <c r="AC610" s="5"/>
       <c r="AD610" s="5"/>
     </row>
-    <row r="611" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="611" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C611" s="5"/>
       <c r="D611" s="5"/>
       <c r="E611" s="5"/>
@@ -18962,7 +18978,7 @@
       <c r="AC611" s="5"/>
       <c r="AD611" s="5"/>
     </row>
-    <row r="612" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="612" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C612" s="5"/>
       <c r="D612" s="5"/>
       <c r="E612" s="5"/>
@@ -18992,7 +19008,7 @@
       <c r="AC612" s="5"/>
       <c r="AD612" s="5"/>
     </row>
-    <row r="613" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="613" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C613" s="5"/>
       <c r="D613" s="5"/>
       <c r="E613" s="5"/>
@@ -19022,7 +19038,7 @@
       <c r="AC613" s="5"/>
       <c r="AD613" s="5"/>
     </row>
-    <row r="614" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="614" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C614" s="5"/>
       <c r="D614" s="5"/>
       <c r="E614" s="5"/>
@@ -19052,7 +19068,7 @@
       <c r="AC614" s="5"/>
       <c r="AD614" s="5"/>
     </row>
-    <row r="615" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="615" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C615" s="5"/>
       <c r="D615" s="5"/>
       <c r="E615" s="5"/>
@@ -19082,7 +19098,7 @@
       <c r="AC615" s="5"/>
       <c r="AD615" s="5"/>
     </row>
-    <row r="616" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="616" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C616" s="5"/>
       <c r="D616" s="5"/>
       <c r="E616" s="5"/>
@@ -19112,7 +19128,7 @@
       <c r="AC616" s="5"/>
       <c r="AD616" s="5"/>
     </row>
-    <row r="617" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="617" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C617" s="5"/>
       <c r="D617" s="5"/>
       <c r="E617" s="5"/>
@@ -19142,7 +19158,7 @@
       <c r="AC617" s="5"/>
       <c r="AD617" s="5"/>
     </row>
-    <row r="618" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="618" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C618" s="5"/>
       <c r="D618" s="5"/>
       <c r="E618" s="5"/>
@@ -19172,7 +19188,7 @@
       <c r="AC618" s="5"/>
       <c r="AD618" s="5"/>
     </row>
-    <row r="619" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="619" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C619" s="5"/>
       <c r="D619" s="5"/>
       <c r="E619" s="5"/>
@@ -19202,7 +19218,7 @@
       <c r="AC619" s="5"/>
       <c r="AD619" s="5"/>
     </row>
-    <row r="620" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="620" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C620" s="5"/>
       <c r="D620" s="5"/>
       <c r="E620" s="5"/>
@@ -19232,7 +19248,7 @@
       <c r="AC620" s="5"/>
       <c r="AD620" s="5"/>
     </row>
-    <row r="621" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="621" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C621" s="5"/>
       <c r="D621" s="5"/>
       <c r="E621" s="5"/>
@@ -19262,7 +19278,7 @@
       <c r="AC621" s="5"/>
       <c r="AD621" s="5"/>
     </row>
-    <row r="622" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="622" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C622" s="5"/>
       <c r="D622" s="5"/>
       <c r="E622" s="5"/>
@@ -19292,7 +19308,7 @@
       <c r="AC622" s="5"/>
       <c r="AD622" s="5"/>
     </row>
-    <row r="623" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="623" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C623" s="5"/>
       <c r="D623" s="5"/>
       <c r="E623" s="5"/>
@@ -19322,7 +19338,7 @@
       <c r="AC623" s="5"/>
       <c r="AD623" s="5"/>
     </row>
-    <row r="624" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="624" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C624" s="5"/>
       <c r="D624" s="5"/>
       <c r="E624" s="5"/>
@@ -19352,7 +19368,7 @@
       <c r="AC624" s="5"/>
       <c r="AD624" s="5"/>
     </row>
-    <row r="625" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="625" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C625" s="5"/>
       <c r="D625" s="5"/>
       <c r="E625" s="5"/>
@@ -19382,7 +19398,7 @@
       <c r="AC625" s="5"/>
       <c r="AD625" s="5"/>
     </row>
-    <row r="626" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="626" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C626" s="5"/>
       <c r="D626" s="5"/>
       <c r="E626" s="5"/>
@@ -19412,7 +19428,7 @@
       <c r="AC626" s="5"/>
       <c r="AD626" s="5"/>
     </row>
-    <row r="627" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="627" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C627" s="5"/>
       <c r="D627" s="5"/>
       <c r="E627" s="5"/>
@@ -19442,7 +19458,7 @@
       <c r="AC627" s="5"/>
       <c r="AD627" s="5"/>
     </row>
-    <row r="628" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="628" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C628" s="5"/>
       <c r="D628" s="5"/>
       <c r="E628" s="5"/>
@@ -19472,7 +19488,7 @@
       <c r="AC628" s="5"/>
       <c r="AD628" s="5"/>
     </row>
-    <row r="629" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="629" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C629" s="5"/>
       <c r="D629" s="5"/>
       <c r="E629" s="5"/>
@@ -19502,7 +19518,7 @@
       <c r="AC629" s="5"/>
       <c r="AD629" s="5"/>
     </row>
-    <row r="630" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="630" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C630" s="5"/>
       <c r="D630" s="5"/>
       <c r="E630" s="5"/>
@@ -19532,7 +19548,7 @@
       <c r="AC630" s="5"/>
       <c r="AD630" s="5"/>
     </row>
-    <row r="631" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="631" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C631" s="5"/>
       <c r="D631" s="5"/>
       <c r="E631" s="5"/>
@@ -19562,7 +19578,7 @@
       <c r="AC631" s="5"/>
       <c r="AD631" s="5"/>
     </row>
-    <row r="632" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="632" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C632" s="5"/>
       <c r="D632" s="5"/>
       <c r="E632" s="5"/>
@@ -19592,7 +19608,7 @@
       <c r="AC632" s="5"/>
       <c r="AD632" s="5"/>
     </row>
-    <row r="633" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="633" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C633" s="5"/>
       <c r="D633" s="5"/>
       <c r="E633" s="5"/>
@@ -19622,7 +19638,7 @@
       <c r="AC633" s="5"/>
       <c r="AD633" s="5"/>
     </row>
-    <row r="634" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="634" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C634" s="5"/>
       <c r="D634" s="5"/>
       <c r="E634" s="5"/>
@@ -19652,7 +19668,7 @@
       <c r="AC634" s="5"/>
       <c r="AD634" s="5"/>
     </row>
-    <row r="635" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="635" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C635" s="5"/>
       <c r="D635" s="5"/>
       <c r="E635" s="5"/>
@@ -19682,7 +19698,7 @@
       <c r="AC635" s="5"/>
       <c r="AD635" s="5"/>
     </row>
-    <row r="636" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="636" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C636" s="5"/>
       <c r="D636" s="5"/>
       <c r="E636" s="5"/>
@@ -19712,7 +19728,7 @@
       <c r="AC636" s="5"/>
       <c r="AD636" s="5"/>
     </row>
-    <row r="637" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="637" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C637" s="5"/>
       <c r="D637" s="5"/>
       <c r="E637" s="5"/>
@@ -19742,7 +19758,7 @@
       <c r="AC637" s="5"/>
       <c r="AD637" s="5"/>
     </row>
-    <row r="638" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="638" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C638" s="5"/>
       <c r="D638" s="5"/>
       <c r="E638" s="5"/>
@@ -19772,7 +19788,7 @@
       <c r="AC638" s="5"/>
       <c r="AD638" s="5"/>
     </row>
-    <row r="639" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="639" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C639" s="5"/>
       <c r="D639" s="5"/>
       <c r="E639" s="5"/>
@@ -19802,7 +19818,7 @@
       <c r="AC639" s="5"/>
       <c r="AD639" s="5"/>
     </row>
-    <row r="640" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="640" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C640" s="5"/>
       <c r="D640" s="5"/>
       <c r="E640" s="5"/>
@@ -19832,7 +19848,7 @@
       <c r="AC640" s="5"/>
       <c r="AD640" s="5"/>
     </row>
-    <row r="641" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="641" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C641" s="5"/>
       <c r="D641" s="5"/>
       <c r="E641" s="5"/>
@@ -19862,7 +19878,7 @@
       <c r="AC641" s="5"/>
       <c r="AD641" s="5"/>
     </row>
-    <row r="642" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="642" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C642" s="5"/>
       <c r="D642" s="5"/>
       <c r="E642" s="5"/>
@@ -19892,7 +19908,7 @@
       <c r="AC642" s="5"/>
       <c r="AD642" s="5"/>
     </row>
-    <row r="643" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="643" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C643" s="5"/>
       <c r="D643" s="5"/>
       <c r="E643" s="5"/>
@@ -19922,7 +19938,7 @@
       <c r="AC643" s="5"/>
       <c r="AD643" s="5"/>
     </row>
-    <row r="644" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="644" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C644" s="5"/>
       <c r="D644" s="5"/>
       <c r="E644" s="5"/>
@@ -19952,7 +19968,7 @@
       <c r="AC644" s="5"/>
       <c r="AD644" s="5"/>
     </row>
-    <row r="645" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="645" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C645" s="5"/>
       <c r="D645" s="5"/>
       <c r="E645" s="5"/>
@@ -19982,7 +19998,7 @@
       <c r="AC645" s="5"/>
       <c r="AD645" s="5"/>
     </row>
-    <row r="646" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="646" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C646" s="5"/>
       <c r="D646" s="5"/>
       <c r="E646" s="5"/>
@@ -20012,7 +20028,7 @@
       <c r="AC646" s="5"/>
       <c r="AD646" s="5"/>
     </row>
-    <row r="647" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="647" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C647" s="5"/>
       <c r="D647" s="5"/>
       <c r="E647" s="5"/>
@@ -20042,7 +20058,7 @@
       <c r="AC647" s="5"/>
       <c r="AD647" s="5"/>
     </row>
-    <row r="648" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="648" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C648" s="5"/>
       <c r="D648" s="5"/>
       <c r="E648" s="5"/>
@@ -20072,7 +20088,7 @@
       <c r="AC648" s="5"/>
       <c r="AD648" s="5"/>
     </row>
-    <row r="649" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="649" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C649" s="5"/>
       <c r="D649" s="5"/>
       <c r="E649" s="5"/>
@@ -20102,7 +20118,7 @@
       <c r="AC649" s="5"/>
       <c r="AD649" s="5"/>
     </row>
-    <row r="650" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="650" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C650" s="5"/>
       <c r="D650" s="5"/>
       <c r="E650" s="5"/>
@@ -20132,7 +20148,7 @@
       <c r="AC650" s="5"/>
       <c r="AD650" s="5"/>
     </row>
-    <row r="651" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="651" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C651" s="5"/>
       <c r="D651" s="5"/>
       <c r="E651" s="5"/>
@@ -20162,7 +20178,7 @@
       <c r="AC651" s="5"/>
       <c r="AD651" s="5"/>
     </row>
-    <row r="652" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="652" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C652" s="5"/>
       <c r="D652" s="5"/>
       <c r="E652" s="5"/>
@@ -20192,7 +20208,7 @@
       <c r="AC652" s="5"/>
       <c r="AD652" s="5"/>
     </row>
-    <row r="653" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="653" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C653" s="5"/>
       <c r="D653" s="5"/>
       <c r="E653" s="5"/>
@@ -20222,7 +20238,7 @@
       <c r="AC653" s="5"/>
       <c r="AD653" s="5"/>
     </row>
-    <row r="654" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="654" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C654" s="5"/>
       <c r="D654" s="5"/>
       <c r="E654" s="5"/>
@@ -20252,7 +20268,7 @@
       <c r="AC654" s="5"/>
       <c r="AD654" s="5"/>
     </row>
-    <row r="655" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="655" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C655" s="5"/>
       <c r="D655" s="5"/>
       <c r="E655" s="5"/>
@@ -20282,7 +20298,7 @@
       <c r="AC655" s="5"/>
       <c r="AD655" s="5"/>
     </row>
-    <row r="656" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="656" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C656" s="5"/>
       <c r="D656" s="5"/>
       <c r="E656" s="5"/>
@@ -20312,7 +20328,7 @@
       <c r="AC656" s="5"/>
       <c r="AD656" s="5"/>
     </row>
-    <row r="657" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="657" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C657" s="5"/>
       <c r="D657" s="5"/>
       <c r="E657" s="5"/>
@@ -20342,7 +20358,7 @@
       <c r="AC657" s="5"/>
       <c r="AD657" s="5"/>
     </row>
-    <row r="658" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="658" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C658" s="5"/>
       <c r="D658" s="5"/>
       <c r="E658" s="5"/>
@@ -20372,7 +20388,7 @@
       <c r="AC658" s="5"/>
       <c r="AD658" s="5"/>
     </row>
-    <row r="659" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="659" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C659" s="5"/>
       <c r="D659" s="5"/>
       <c r="E659" s="5"/>
@@ -20402,7 +20418,7 @@
       <c r="AC659" s="5"/>
       <c r="AD659" s="5"/>
     </row>
-    <row r="660" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="660" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C660" s="5"/>
       <c r="D660" s="5"/>
       <c r="E660" s="5"/>
@@ -20432,7 +20448,7 @@
       <c r="AC660" s="5"/>
       <c r="AD660" s="5"/>
     </row>
-    <row r="661" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="661" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C661" s="5"/>
       <c r="D661" s="5"/>
       <c r="E661" s="5"/>
@@ -20462,7 +20478,7 @@
       <c r="AC661" s="5"/>
       <c r="AD661" s="5"/>
     </row>
-    <row r="662" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="662" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C662" s="5"/>
       <c r="D662" s="5"/>
       <c r="E662" s="5"/>
@@ -20492,7 +20508,7 @@
       <c r="AC662" s="5"/>
       <c r="AD662" s="5"/>
     </row>
-    <row r="663" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="663" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C663" s="5"/>
       <c r="D663" s="5"/>
       <c r="E663" s="5"/>
@@ -20522,7 +20538,7 @@
       <c r="AC663" s="5"/>
       <c r="AD663" s="5"/>
     </row>
-    <row r="664" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="664" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C664" s="5"/>
       <c r="D664" s="5"/>
       <c r="E664" s="5"/>
@@ -20552,7 +20568,7 @@
       <c r="AC664" s="5"/>
       <c r="AD664" s="5"/>
     </row>
-    <row r="665" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="665" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C665" s="5"/>
       <c r="D665" s="5"/>
       <c r="E665" s="5"/>
@@ -20582,7 +20598,7 @@
       <c r="AC665" s="5"/>
       <c r="AD665" s="5"/>
     </row>
-    <row r="666" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="666" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C666" s="5"/>
       <c r="D666" s="5"/>
       <c r="E666" s="5"/>
@@ -20612,7 +20628,7 @@
       <c r="AC666" s="5"/>
       <c r="AD666" s="5"/>
     </row>
-    <row r="667" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="667" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C667" s="5"/>
       <c r="D667" s="5"/>
       <c r="E667" s="5"/>
@@ -20642,7 +20658,7 @@
       <c r="AC667" s="5"/>
       <c r="AD667" s="5"/>
     </row>
-    <row r="668" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="668" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C668" s="5"/>
       <c r="D668" s="5"/>
       <c r="E668" s="5"/>
@@ -20672,7 +20688,7 @@
       <c r="AC668" s="5"/>
       <c r="AD668" s="5"/>
     </row>
-    <row r="669" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="669" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C669" s="5"/>
       <c r="D669" s="5"/>
       <c r="E669" s="5"/>
@@ -20702,7 +20718,7 @@
       <c r="AC669" s="5"/>
       <c r="AD669" s="5"/>
     </row>
-    <row r="670" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="670" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C670" s="5"/>
       <c r="D670" s="5"/>
       <c r="E670" s="5"/>
@@ -20732,7 +20748,7 @@
       <c r="AC670" s="5"/>
       <c r="AD670" s="5"/>
     </row>
-    <row r="671" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="671" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C671" s="5"/>
       <c r="D671" s="5"/>
       <c r="E671" s="5"/>
@@ -20762,7 +20778,7 @@
       <c r="AC671" s="5"/>
       <c r="AD671" s="5"/>
     </row>
-    <row r="672" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="672" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C672" s="5"/>
       <c r="D672" s="5"/>
       <c r="E672" s="5"/>
@@ -20792,7 +20808,7 @@
       <c r="AC672" s="5"/>
       <c r="AD672" s="5"/>
     </row>
-    <row r="673" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="673" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C673" s="5"/>
       <c r="D673" s="5"/>
       <c r="E673" s="5"/>
@@ -20822,7 +20838,7 @@
       <c r="AC673" s="5"/>
       <c r="AD673" s="5"/>
     </row>
-    <row r="674" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="674" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C674" s="5"/>
       <c r="D674" s="5"/>
       <c r="E674" s="5"/>
@@ -20852,7 +20868,7 @@
       <c r="AC674" s="5"/>
       <c r="AD674" s="5"/>
     </row>
-    <row r="675" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="675" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C675" s="5"/>
       <c r="D675" s="5"/>
       <c r="E675" s="5"/>
@@ -20882,7 +20898,7 @@
       <c r="AC675" s="5"/>
       <c r="AD675" s="5"/>
     </row>
-    <row r="676" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="676" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C676" s="5"/>
       <c r="D676" s="5"/>
       <c r="E676" s="5"/>
@@ -20912,7 +20928,7 @@
       <c r="AC676" s="5"/>
       <c r="AD676" s="5"/>
     </row>
-    <row r="677" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="677" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C677" s="5"/>
       <c r="D677" s="5"/>
       <c r="E677" s="5"/>
@@ -20942,7 +20958,7 @@
       <c r="AC677" s="5"/>
       <c r="AD677" s="5"/>
     </row>
-    <row r="678" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="678" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C678" s="5"/>
       <c r="D678" s="5"/>
       <c r="E678" s="5"/>
@@ -20972,7 +20988,7 @@
       <c r="AC678" s="5"/>
       <c r="AD678" s="5"/>
     </row>
-    <row r="679" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="679" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C679" s="5"/>
       <c r="D679" s="5"/>
       <c r="E679" s="5"/>
@@ -21002,7 +21018,7 @@
       <c r="AC679" s="5"/>
       <c r="AD679" s="5"/>
     </row>
-    <row r="680" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="680" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C680" s="5"/>
       <c r="D680" s="5"/>
       <c r="E680" s="5"/>
@@ -21032,7 +21048,7 @@
       <c r="AC680" s="5"/>
       <c r="AD680" s="5"/>
     </row>
-    <row r="681" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="681" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C681" s="5"/>
       <c r="D681" s="5"/>
       <c r="E681" s="5"/>
@@ -21062,7 +21078,7 @@
       <c r="AC681" s="5"/>
       <c r="AD681" s="5"/>
     </row>
-    <row r="682" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="682" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C682" s="5"/>
       <c r="D682" s="5"/>
       <c r="E682" s="5"/>
@@ -21092,7 +21108,7 @@
       <c r="AC682" s="5"/>
       <c r="AD682" s="5"/>
     </row>
-    <row r="683" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="683" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C683" s="5"/>
       <c r="D683" s="5"/>
       <c r="E683" s="5"/>
@@ -21122,7 +21138,7 @@
       <c r="AC683" s="5"/>
       <c r="AD683" s="5"/>
     </row>
-    <row r="684" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="684" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C684" s="5"/>
       <c r="D684" s="5"/>
       <c r="E684" s="5"/>
@@ -21152,7 +21168,7 @@
       <c r="AC684" s="5"/>
       <c r="AD684" s="5"/>
     </row>
-    <row r="685" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="685" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C685" s="5"/>
       <c r="D685" s="5"/>
       <c r="E685" s="5"/>
@@ -21182,7 +21198,7 @@
       <c r="AC685" s="5"/>
       <c r="AD685" s="5"/>
     </row>
-    <row r="686" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="686" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C686" s="5"/>
       <c r="D686" s="5"/>
       <c r="E686" s="5"/>
@@ -21212,7 +21228,7 @@
       <c r="AC686" s="5"/>
       <c r="AD686" s="5"/>
     </row>
-    <row r="687" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="687" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C687" s="5"/>
       <c r="D687" s="5"/>
       <c r="E687" s="5"/>
@@ -21242,7 +21258,7 @@
       <c r="AC687" s="5"/>
       <c r="AD687" s="5"/>
     </row>
-    <row r="688" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="688" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C688" s="5"/>
       <c r="D688" s="5"/>
       <c r="E688" s="5"/>
@@ -21272,7 +21288,7 @@
       <c r="AC688" s="5"/>
       <c r="AD688" s="5"/>
     </row>
-    <row r="689" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="689" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C689" s="5"/>
       <c r="D689" s="5"/>
       <c r="E689" s="5"/>
@@ -21302,7 +21318,7 @@
       <c r="AC689" s="5"/>
       <c r="AD689" s="5"/>
     </row>
-    <row r="690" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="690" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C690" s="5"/>
       <c r="D690" s="5"/>
       <c r="E690" s="5"/>
@@ -21332,7 +21348,7 @@
       <c r="AC690" s="5"/>
       <c r="AD690" s="5"/>
     </row>
-    <row r="691" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="691" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C691" s="5"/>
       <c r="D691" s="5"/>
       <c r="E691" s="5"/>
@@ -21362,7 +21378,7 @@
       <c r="AC691" s="5"/>
       <c r="AD691" s="5"/>
     </row>
-    <row r="692" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="692" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C692" s="5"/>
       <c r="D692" s="5"/>
       <c r="E692" s="5"/>
@@ -21392,7 +21408,7 @@
       <c r="AC692" s="5"/>
       <c r="AD692" s="5"/>
     </row>
-    <row r="693" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="693" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C693" s="5"/>
       <c r="D693" s="5"/>
       <c r="E693" s="5"/>
@@ -21422,7 +21438,7 @@
       <c r="AC693" s="5"/>
       <c r="AD693" s="5"/>
     </row>
-    <row r="694" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="694" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C694" s="5"/>
       <c r="D694" s="5"/>
       <c r="E694" s="5"/>
@@ -21452,7 +21468,7 @@
       <c r="AC694" s="5"/>
       <c r="AD694" s="5"/>
     </row>
-    <row r="695" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="695" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C695" s="5"/>
       <c r="D695" s="5"/>
       <c r="E695" s="5"/>
@@ -21482,7 +21498,7 @@
       <c r="AC695" s="5"/>
       <c r="AD695" s="5"/>
     </row>
-    <row r="696" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="696" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C696" s="5"/>
       <c r="D696" s="5"/>
       <c r="E696" s="5"/>
@@ -21512,7 +21528,7 @@
       <c r="AC696" s="5"/>
       <c r="AD696" s="5"/>
     </row>
-    <row r="697" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="697" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C697" s="5"/>
       <c r="D697" s="5"/>
       <c r="E697" s="5"/>
@@ -21542,7 +21558,7 @@
       <c r="AC697" s="5"/>
       <c r="AD697" s="5"/>
     </row>
-    <row r="698" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="698" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C698" s="5"/>
       <c r="D698" s="5"/>
       <c r="E698" s="5"/>
@@ -21572,7 +21588,7 @@
       <c r="AC698" s="5"/>
       <c r="AD698" s="5"/>
     </row>
-    <row r="699" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="699" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C699" s="5"/>
       <c r="D699" s="5"/>
       <c r="E699" s="5"/>
@@ -21602,7 +21618,7 @@
       <c r="AC699" s="5"/>
       <c r="AD699" s="5"/>
     </row>
-    <row r="700" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="700" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C700" s="5"/>
       <c r="D700" s="5"/>
       <c r="E700" s="5"/>
@@ -21632,7 +21648,7 @@
       <c r="AC700" s="5"/>
       <c r="AD700" s="5"/>
     </row>
-    <row r="701" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="701" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C701" s="5"/>
       <c r="D701" s="5"/>
       <c r="E701" s="5"/>
@@ -21662,7 +21678,7 @@
       <c r="AC701" s="5"/>
       <c r="AD701" s="5"/>
     </row>
-    <row r="702" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="702" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C702" s="5"/>
       <c r="D702" s="5"/>
       <c r="E702" s="5"/>
@@ -21692,7 +21708,7 @@
       <c r="AC702" s="5"/>
       <c r="AD702" s="5"/>
     </row>
-    <row r="703" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="703" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C703" s="5"/>
       <c r="D703" s="5"/>
       <c r="E703" s="5"/>
@@ -21722,7 +21738,7 @@
       <c r="AC703" s="5"/>
       <c r="AD703" s="5"/>
     </row>
-    <row r="704" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="704" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C704" s="5"/>
       <c r="D704" s="5"/>
       <c r="E704" s="5"/>
@@ -21752,7 +21768,7 @@
       <c r="AC704" s="5"/>
       <c r="AD704" s="5"/>
     </row>
-    <row r="705" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="705" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C705" s="5"/>
       <c r="D705" s="5"/>
       <c r="E705" s="5"/>
@@ -21782,7 +21798,7 @@
       <c r="AC705" s="5"/>
       <c r="AD705" s="5"/>
     </row>
-    <row r="706" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="706" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C706" s="5"/>
       <c r="D706" s="5"/>
       <c r="E706" s="5"/>
@@ -21812,7 +21828,7 @@
       <c r="AC706" s="5"/>
       <c r="AD706" s="5"/>
     </row>
-    <row r="707" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="707" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C707" s="5"/>
       <c r="D707" s="5"/>
       <c r="E707" s="5"/>
@@ -21842,7 +21858,7 @@
       <c r="AC707" s="5"/>
       <c r="AD707" s="5"/>
     </row>
-    <row r="708" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="708" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C708" s="5"/>
       <c r="D708" s="5"/>
       <c r="E708" s="5"/>
@@ -21872,7 +21888,7 @@
       <c r="AC708" s="5"/>
       <c r="AD708" s="5"/>
     </row>
-    <row r="709" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="709" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C709" s="5"/>
       <c r="D709" s="5"/>
       <c r="E709" s="5"/>
@@ -21902,7 +21918,7 @@
       <c r="AC709" s="5"/>
       <c r="AD709" s="5"/>
     </row>
-    <row r="710" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="710" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C710" s="5"/>
       <c r="D710" s="5"/>
       <c r="E710" s="5"/>
@@ -21932,7 +21948,7 @@
       <c r="AC710" s="5"/>
       <c r="AD710" s="5"/>
     </row>
-    <row r="711" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="711" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C711" s="5"/>
       <c r="D711" s="5"/>
       <c r="E711" s="5"/>
@@ -21962,7 +21978,7 @@
       <c r="AC711" s="5"/>
       <c r="AD711" s="5"/>
     </row>
-    <row r="712" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="712" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C712" s="5"/>
       <c r="D712" s="5"/>
       <c r="E712" s="5"/>
@@ -21992,7 +22008,7 @@
       <c r="AC712" s="5"/>
       <c r="AD712" s="5"/>
     </row>
-    <row r="713" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="713" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C713" s="5"/>
       <c r="D713" s="5"/>
       <c r="E713" s="5"/>
@@ -22022,7 +22038,7 @@
       <c r="AC713" s="5"/>
       <c r="AD713" s="5"/>
     </row>
-    <row r="714" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="714" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C714" s="5"/>
       <c r="D714" s="5"/>
       <c r="E714" s="5"/>
@@ -22052,7 +22068,7 @@
       <c r="AC714" s="5"/>
       <c r="AD714" s="5"/>
     </row>
-    <row r="715" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="715" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C715" s="5"/>
       <c r="D715" s="5"/>
       <c r="E715" s="5"/>
@@ -22082,7 +22098,7 @@
       <c r="AC715" s="5"/>
       <c r="AD715" s="5"/>
     </row>
-    <row r="716" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="716" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C716" s="5"/>
       <c r="D716" s="5"/>
       <c r="E716" s="5"/>
@@ -22112,7 +22128,7 @@
       <c r="AC716" s="5"/>
       <c r="AD716" s="5"/>
     </row>
-    <row r="717" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="717" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C717" s="5"/>
       <c r="D717" s="5"/>
       <c r="E717" s="5"/>
@@ -22142,7 +22158,7 @@
       <c r="AC717" s="5"/>
       <c r="AD717" s="5"/>
     </row>
-    <row r="718" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="718" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C718" s="5"/>
       <c r="D718" s="5"/>
       <c r="E718" s="5"/>
@@ -22172,7 +22188,7 @@
       <c r="AC718" s="5"/>
       <c r="AD718" s="5"/>
     </row>
-    <row r="719" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="719" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C719" s="5"/>
       <c r="D719" s="5"/>
       <c r="E719" s="5"/>
@@ -22202,7 +22218,7 @@
       <c r="AC719" s="5"/>
       <c r="AD719" s="5"/>
     </row>
-    <row r="720" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="720" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C720" s="5"/>
       <c r="D720" s="5"/>
       <c r="E720" s="5"/>
@@ -22232,7 +22248,7 @@
       <c r="AC720" s="5"/>
       <c r="AD720" s="5"/>
     </row>
-    <row r="721" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="721" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C721" s="5"/>
       <c r="D721" s="5"/>
       <c r="E721" s="5"/>
@@ -22262,7 +22278,7 @@
       <c r="AC721" s="5"/>
       <c r="AD721" s="5"/>
     </row>
-    <row r="722" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="722" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C722" s="5"/>
       <c r="D722" s="5"/>
       <c r="E722" s="5"/>
@@ -22292,7 +22308,7 @@
       <c r="AC722" s="5"/>
       <c r="AD722" s="5"/>
     </row>
-    <row r="723" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="723" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C723" s="5"/>
       <c r="D723" s="5"/>
       <c r="E723" s="5"/>
@@ -22322,7 +22338,7 @@
       <c r="AC723" s="5"/>
       <c r="AD723" s="5"/>
     </row>
-    <row r="724" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="724" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C724" s="5"/>
       <c r="D724" s="5"/>
       <c r="E724" s="5"/>
@@ -22352,7 +22368,7 @@
       <c r="AC724" s="5"/>
       <c r="AD724" s="5"/>
     </row>
-    <row r="725" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="725" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C725" s="5"/>
       <c r="D725" s="5"/>
       <c r="E725" s="5"/>
@@ -22382,7 +22398,7 @@
       <c r="AC725" s="5"/>
       <c r="AD725" s="5"/>
     </row>
-    <row r="726" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="726" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C726" s="5"/>
       <c r="D726" s="5"/>
       <c r="E726" s="5"/>
@@ -22412,7 +22428,7 @@
       <c r="AC726" s="5"/>
       <c r="AD726" s="5"/>
     </row>
-    <row r="727" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="727" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C727" s="5"/>
       <c r="D727" s="5"/>
       <c r="E727" s="5"/>
